--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2627201.271868232</v>
+        <v>2626397.994438324</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822162.6265051719</v>
+        <v>822162.6265051721</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>238.8022356950655</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>208.6957123392362</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>30.67690516600954</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>122.5422878399794</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>228.9768674197207</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>24.29757711516585</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>176.2637201985544</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>207.0368788505634</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>1.944519418634081</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.77593657116727</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>284.5827384570578</v>
       </c>
       <c r="D11" t="n">
-        <v>236.0312484662371</v>
+        <v>273.9928883067332</v>
       </c>
       <c r="E11" t="n">
         <v>301.240216758312</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1858924277616</v>
+        <v>326.1858924277617</v>
       </c>
       <c r="G11" t="n">
-        <v>332.2670391877248</v>
+        <v>332.2670391877249</v>
       </c>
       <c r="H11" t="n">
-        <v>234.7633359327158</v>
+        <v>234.7633359327159</v>
       </c>
       <c r="I11" t="n">
-        <v>39.35911212502319</v>
+        <v>39.35911212502324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.88080927806618</v>
+        <v>74.88080927806624</v>
       </c>
       <c r="T11" t="n">
-        <v>132.1380729537586</v>
+        <v>94.17643311326079</v>
       </c>
       <c r="U11" t="n">
         <v>170.4678559928099</v>
       </c>
       <c r="V11" t="n">
-        <v>247.0621051561851</v>
+        <v>247.0621051561852</v>
       </c>
       <c r="W11" t="n">
-        <v>268.5508154034632</v>
+        <v>268.5508154034633</v>
       </c>
       <c r="X11" t="n">
-        <v>289.0409473645192</v>
+        <v>289.0409473645193</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.5477853421038</v>
+        <v>305.5477853421039</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.1418268679875</v>
+        <v>99.14182686798756</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>86.5566677846781</v>
       </c>
       <c r="D13" t="n">
-        <v>67.92531970426256</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.74380933261938</v>
+        <v>65.74380933261943</v>
       </c>
       <c r="F13" t="n">
-        <v>64.73089470898145</v>
+        <v>64.73089470898151</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>64.23372687296306</v>
+        <v>72.18262039001249</v>
       </c>
       <c r="I13" t="n">
-        <v>43.11988067066734</v>
+        <v>43.1198806706674</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.29561384849688</v>
+        <v>49.29561384849693</v>
       </c>
       <c r="S13" t="n">
-        <v>124.9906752892126</v>
+        <v>98.41043369174682</v>
       </c>
       <c r="T13" t="n">
-        <v>142.7599683866892</v>
+        <v>142.7599683866893</v>
       </c>
       <c r="U13" t="n">
-        <v>205.5714870928265</v>
+        <v>205.5714870928266</v>
       </c>
       <c r="V13" t="n">
-        <v>171.4474900098782</v>
+        <v>171.4474900098783</v>
       </c>
       <c r="W13" t="n">
-        <v>205.8328450226412</v>
+        <v>205.8328450226413</v>
       </c>
       <c r="X13" t="n">
         <v>145.0195020750874</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.894500038145</v>
+        <v>137.8945000381451</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601643</v>
       </c>
       <c r="C14" t="n">
         <v>282.0519624676913</v>
@@ -1613,19 +1613,19 @@
         <v>271.4621123173667</v>
       </c>
       <c r="E14" t="n">
-        <v>298.7094407689456</v>
+        <v>298.7094407689455</v>
       </c>
       <c r="F14" t="n">
         <v>323.6551164383952</v>
       </c>
       <c r="G14" t="n">
-        <v>329.7362631983584</v>
+        <v>329.7362631983578</v>
       </c>
       <c r="H14" t="n">
         <v>232.2325599433494</v>
       </c>
       <c r="I14" t="n">
-        <v>36.82833613565674</v>
+        <v>36.82833613565663</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.35003328869973</v>
+        <v>72.35003328869972</v>
       </c>
       <c r="T14" t="n">
         <v>129.6072969643921</v>
       </c>
       <c r="U14" t="n">
-        <v>167.937080003443</v>
+        <v>167.9370800034435</v>
       </c>
       <c r="V14" t="n">
-        <v>244.5313291668187</v>
+        <v>244.5313291668186</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0200394140968</v>
+        <v>266.0200394140967</v>
       </c>
       <c r="X14" t="n">
         <v>286.5101713751528</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.61105087862106</v>
+        <v>96.61105087862104</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84.02589179531158</v>
       </c>
       <c r="D16" t="n">
-        <v>65.39454371489612</v>
+        <v>65.3945437148961</v>
       </c>
       <c r="E16" t="n">
-        <v>63.21303334325293</v>
+        <v>63.21303334325292</v>
       </c>
       <c r="F16" t="n">
-        <v>62.20011871961501</v>
+        <v>62.20011871961499</v>
       </c>
       <c r="G16" t="n">
-        <v>83.71791931037512</v>
+        <v>83.71791931037511</v>
       </c>
       <c r="H16" t="n">
-        <v>33.25920380177637</v>
+        <v>69.65184440064597</v>
       </c>
       <c r="I16" t="n">
-        <v>40.5891046813009</v>
+        <v>40.58910468130088</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.76483785913043</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4598992998461</v>
+        <v>48.80620476479585</v>
       </c>
       <c r="T16" t="n">
-        <v>140.2291923973228</v>
+        <v>140.2291923973227</v>
       </c>
       <c r="U16" t="n">
-        <v>203.0407111034601</v>
+        <v>203.04071110346</v>
       </c>
       <c r="V16" t="n">
-        <v>168.9167140205118</v>
+        <v>168.9167140205117</v>
       </c>
       <c r="W16" t="n">
-        <v>203.3020690332748</v>
+        <v>203.3020690332747</v>
       </c>
       <c r="X16" t="n">
         <v>142.4887260857209</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.3637240487786</v>
+        <v>135.3637240487785</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601643</v>
       </c>
       <c r="C17" t="n">
         <v>282.0519624676913</v>
@@ -1850,7 +1850,7 @@
         <v>271.4621123173667</v>
       </c>
       <c r="E17" t="n">
-        <v>298.7094407689456</v>
+        <v>298.7094407689455</v>
       </c>
       <c r="F17" t="n">
         <v>323.6551164383952</v>
@@ -1859,10 +1859,10 @@
         <v>329.7362631983584</v>
       </c>
       <c r="H17" t="n">
-        <v>232.2325599433494</v>
+        <v>232.2325599433493</v>
       </c>
       <c r="I17" t="n">
-        <v>36.82833613565674</v>
+        <v>36.82833613565666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.35003328869973</v>
+        <v>72.35003328869971</v>
       </c>
       <c r="T17" t="n">
         <v>129.6072969643921</v>
@@ -1901,10 +1901,10 @@
         <v>167.9370800034434</v>
       </c>
       <c r="V17" t="n">
-        <v>244.5313291668187</v>
+        <v>244.5313291668186</v>
       </c>
       <c r="W17" t="n">
-        <v>266.0200394140968</v>
+        <v>266.0200394140967</v>
       </c>
       <c r="X17" t="n">
         <v>286.5101713751528</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.61105087862104</v>
       </c>
       <c r="C19" t="n">
-        <v>84.02589179531159</v>
+        <v>84.02589179531158</v>
       </c>
       <c r="D19" t="n">
-        <v>65.39454371489612</v>
+        <v>65.3945437148961</v>
       </c>
       <c r="E19" t="n">
-        <v>63.21303334325293</v>
+        <v>63.21303334325292</v>
       </c>
       <c r="F19" t="n">
-        <v>62.20011871961501</v>
+        <v>62.20011871961499</v>
       </c>
       <c r="G19" t="n">
-        <v>83.71791931037512</v>
+        <v>32.95123131684037</v>
       </c>
       <c r="H19" t="n">
-        <v>69.65184440064598</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>40.5891046813009</v>
+        <v>40.58910468130088</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.76483785913043</v>
+        <v>46.76483785913042</v>
       </c>
       <c r="S19" t="n">
         <v>122.4598992998461</v>
       </c>
       <c r="T19" t="n">
-        <v>140.2291923973228</v>
+        <v>140.2291923973227</v>
       </c>
       <c r="U19" t="n">
-        <v>203.0407111034601</v>
+        <v>203.04071110346</v>
       </c>
       <c r="V19" t="n">
-        <v>168.9167140205118</v>
+        <v>168.9167140205117</v>
       </c>
       <c r="W19" t="n">
-        <v>203.3020690332748</v>
+        <v>203.3020690332747</v>
       </c>
       <c r="X19" t="n">
-        <v>118.6812445701607</v>
+        <v>142.4887260857209</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.3637240487786</v>
+        <v>135.3637240487785</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601643</v>
       </c>
       <c r="C20" t="n">
         <v>282.0519624676913</v>
@@ -2087,19 +2087,19 @@
         <v>271.4621123173667</v>
       </c>
       <c r="E20" t="n">
-        <v>298.7094407689456</v>
+        <v>298.7094407689455</v>
       </c>
       <c r="F20" t="n">
-        <v>323.6551164383952</v>
+        <v>323.6551164383951</v>
       </c>
       <c r="G20" t="n">
         <v>329.7362631983584</v>
       </c>
       <c r="H20" t="n">
-        <v>232.2325599433494</v>
+        <v>232.2325599433493</v>
       </c>
       <c r="I20" t="n">
-        <v>36.82833613565666</v>
+        <v>36.82833613565673</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.35003328869982</v>
+        <v>72.35003328869971</v>
       </c>
       <c r="T20" t="n">
-        <v>129.6072969643922</v>
+        <v>129.6072969643921</v>
       </c>
       <c r="U20" t="n">
-        <v>167.937080003443</v>
+        <v>167.9370800034434</v>
       </c>
       <c r="V20" t="n">
-        <v>244.5313291668187</v>
+        <v>244.5313291668186</v>
       </c>
       <c r="W20" t="n">
-        <v>266.0200394140968</v>
+        <v>266.0200394140967</v>
       </c>
       <c r="X20" t="n">
         <v>286.5101713751528</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.0170093527374</v>
+        <v>303.0170093527373</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.6110508786211</v>
+        <v>96.61105087862104</v>
       </c>
       <c r="C22" t="n">
-        <v>84.02589179531164</v>
+        <v>84.02589179531158</v>
       </c>
       <c r="D22" t="n">
-        <v>65.39454371489616</v>
+        <v>65.3945437148961</v>
       </c>
       <c r="E22" t="n">
-        <v>63.21303334325297</v>
+        <v>63.21303334325292</v>
       </c>
       <c r="F22" t="n">
-        <v>62.20011871961505</v>
+        <v>62.20011871961499</v>
       </c>
       <c r="G22" t="n">
-        <v>83.71791931037517</v>
+        <v>83.71791931037511</v>
       </c>
       <c r="H22" t="n">
-        <v>69.65184440064603</v>
+        <v>69.65184440064597</v>
       </c>
       <c r="I22" t="n">
-        <v>40.58910468130094</v>
+        <v>40.58910468130088</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.76483785913047</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>122.4598992998462</v>
+        <v>48.80620476479585</v>
       </c>
       <c r="T22" t="n">
-        <v>140.2291923973228</v>
+        <v>140.2291923973227</v>
       </c>
       <c r="U22" t="n">
-        <v>82.62217870927769</v>
+        <v>203.04071110346</v>
       </c>
       <c r="V22" t="n">
-        <v>168.9167140205118</v>
+        <v>168.9167140205117</v>
       </c>
       <c r="W22" t="n">
-        <v>203.3020690332748</v>
+        <v>203.3020690332747</v>
       </c>
       <c r="X22" t="n">
         <v>142.4887260857209</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.3637240487786</v>
+        <v>135.3637240487785</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601643</v>
       </c>
       <c r="C23" t="n">
-        <v>282.0519624676912</v>
+        <v>282.0519624676913</v>
       </c>
       <c r="D23" t="n">
         <v>271.4621123173667</v>
       </c>
       <c r="E23" t="n">
-        <v>298.7094407689456</v>
+        <v>298.7094407689455</v>
       </c>
       <c r="F23" t="n">
         <v>323.6551164383952</v>
@@ -2333,10 +2333,10 @@
         <v>329.7362631983584</v>
       </c>
       <c r="H23" t="n">
-        <v>232.2325599433494</v>
+        <v>232.2325599433493</v>
       </c>
       <c r="I23" t="n">
-        <v>36.82833613565678</v>
+        <v>36.82833613565673</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.35003328869976</v>
+        <v>72.35003328869971</v>
       </c>
       <c r="T23" t="n">
-        <v>129.6072969643922</v>
+        <v>129.6072969643921</v>
       </c>
       <c r="U23" t="n">
         <v>167.9370800034434</v>
       </c>
       <c r="V23" t="n">
-        <v>244.5313291668187</v>
+        <v>244.5313291668186</v>
       </c>
       <c r="W23" t="n">
-        <v>266.0200394140968</v>
+        <v>266.0200394140967</v>
       </c>
       <c r="X23" t="n">
         <v>286.5101713751528</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.0170093527374</v>
+        <v>303.0170093527373</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.6110508786211</v>
+        <v>96.61105087862104</v>
       </c>
       <c r="C25" t="n">
-        <v>84.02589179531164</v>
+        <v>84.02589179531158</v>
       </c>
       <c r="D25" t="n">
-        <v>65.39454371489616</v>
+        <v>65.3945437148961</v>
       </c>
       <c r="E25" t="n">
-        <v>63.21303334325297</v>
+        <v>63.21303334325292</v>
       </c>
       <c r="F25" t="n">
-        <v>62.20011871961505</v>
+        <v>62.20011871961499</v>
       </c>
       <c r="G25" t="n">
-        <v>83.71791931037517</v>
+        <v>83.71791931037511</v>
       </c>
       <c r="H25" t="n">
-        <v>69.65184440064603</v>
+        <v>69.65184440064597</v>
       </c>
       <c r="I25" t="n">
-        <v>40.58910468130094</v>
+        <v>40.58910468130088</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.76483785913047</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.4598992998462</v>
+        <v>48.80620476479585</v>
       </c>
       <c r="T25" t="n">
-        <v>140.2291923973228</v>
+        <v>140.2291923973227</v>
       </c>
       <c r="U25" t="n">
-        <v>82.62217870927837</v>
+        <v>203.04071110346</v>
       </c>
       <c r="V25" t="n">
-        <v>168.9167140205118</v>
+        <v>168.9167140205117</v>
       </c>
       <c r="W25" t="n">
-        <v>203.3020690332748</v>
+        <v>203.3020690332747</v>
       </c>
       <c r="X25" t="n">
         <v>142.4887260857209</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.3637240487786</v>
+        <v>135.3637240487785</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>380.2030656741142</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>362.7421157816411</v>
       </c>
       <c r="D26" t="n">
         <v>352.1522656313165</v>
@@ -2567,10 +2567,10 @@
         <v>404.345269752345</v>
       </c>
       <c r="G26" t="n">
-        <v>310.2196229479188</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>312.9227132572992</v>
+        <v>86.84554585852177</v>
       </c>
       <c r="I26" t="n">
         <v>117.5184894496066</v>
@@ -2609,16 +2609,16 @@
         <v>210.297450278342</v>
       </c>
       <c r="U26" t="n">
-        <v>248.6272333173932</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>325.2214824807685</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>346.7101927280466</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>367.2003246891026</v>
       </c>
       <c r="Y26" t="n">
         <v>383.7071626666872</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>177.3012041925709</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>142.8902720335648</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.408072624325</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.3419977145958</v>
       </c>
       <c r="I28" t="n">
-        <v>121.2792579952507</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>16.4427604722519</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>283.7308644174099</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>249.6068673344616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>89.99986936094935</v>
       </c>
       <c r="X28" t="n">
-        <v>223.1788793996707</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.1951745859264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>129.6072969643922</v>
       </c>
       <c r="U29" t="n">
-        <v>167.9370800034421</v>
+        <v>167.9370800034435</v>
       </c>
       <c r="V29" t="n">
         <v>244.5313291668187</v>
@@ -2962,10 +2962,10 @@
         <v>62.20011871961506</v>
       </c>
       <c r="G31" t="n">
-        <v>83.71791931037518</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>69.65184440064604</v>
+        <v>32.95123131683888</v>
       </c>
       <c r="I31" t="n">
         <v>40.58910468130095</v>
@@ -3001,7 +3001,7 @@
         <v>122.4598992998462</v>
       </c>
       <c r="T31" t="n">
-        <v>19.81066000314042</v>
+        <v>140.2291923973228</v>
       </c>
       <c r="U31" t="n">
         <v>203.0407111034601</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601632</v>
       </c>
       <c r="C32" t="n">
-        <v>282.0519624676903</v>
+        <v>282.0519624676914</v>
       </c>
       <c r="D32" t="n">
         <v>271.4621123173667</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.61105087862111</v>
       </c>
       <c r="C34" t="n">
         <v>84.02589179531165</v>
@@ -3196,16 +3196,16 @@
         <v>63.21303334325299</v>
       </c>
       <c r="F34" t="n">
-        <v>62.20011871961506</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>83.71791931037518</v>
       </c>
       <c r="H34" t="n">
-        <v>69.65184440064604</v>
+        <v>52.02253540737976</v>
       </c>
       <c r="I34" t="n">
-        <v>40.58910468130095</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>122.4598992998462</v>
       </c>
       <c r="T34" t="n">
-        <v>116.4217108817617</v>
+        <v>140.2291923973228</v>
       </c>
       <c r="U34" t="n">
         <v>203.0407111034601</v>
@@ -3266,7 +3266,7 @@
         <v>299.5129123601644</v>
       </c>
       <c r="C35" t="n">
-        <v>282.0519624676913</v>
+        <v>282.0519624676914</v>
       </c>
       <c r="D35" t="n">
         <v>271.4621123173667</v>
@@ -3284,7 +3284,7 @@
         <v>232.2325599433494</v>
       </c>
       <c r="I35" t="n">
-        <v>36.82833613565676</v>
+        <v>36.8283361356568</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.35003328869975</v>
+        <v>72.35003328869847</v>
       </c>
       <c r="T35" t="n">
         <v>129.6072969643922</v>
       </c>
       <c r="U35" t="n">
-        <v>167.937080003443</v>
+        <v>167.9370800034435</v>
       </c>
       <c r="V35" t="n">
         <v>244.5313291668187</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.61105087862107</v>
+        <v>96.61105087862111</v>
       </c>
       <c r="C37" t="n">
-        <v>84.02589179531161</v>
+        <v>84.02589179531165</v>
       </c>
       <c r="D37" t="n">
-        <v>65.39454371489613</v>
+        <v>65.39454371489617</v>
       </c>
       <c r="E37" t="n">
-        <v>63.21303334325295</v>
+        <v>4.99461966868574</v>
       </c>
       <c r="F37" t="n">
-        <v>62.20011871961502</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>83.71791931037514</v>
+        <v>83.71791931037518</v>
       </c>
       <c r="H37" t="n">
-        <v>69.651844400646</v>
+        <v>69.65184440064604</v>
       </c>
       <c r="I37" t="n">
-        <v>40.58910468130091</v>
+        <v>40.58910468130095</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.76483785913044</v>
+        <v>46.76483785913049</v>
       </c>
       <c r="S37" t="n">
-        <v>2.041366905664094</v>
+        <v>122.4598992998462</v>
       </c>
       <c r="T37" t="n">
         <v>140.2291923973228</v>
@@ -3487,7 +3487,7 @@
         <v>203.3020690332748</v>
       </c>
       <c r="X37" t="n">
-        <v>142.4887260857209</v>
+        <v>142.488726085721</v>
       </c>
       <c r="Y37" t="n">
         <v>135.3637240487786</v>
@@ -3503,10 +3503,10 @@
         <v>299.5129123601644</v>
       </c>
       <c r="C38" t="n">
-        <v>282.0519624676913</v>
+        <v>282.0519624676914</v>
       </c>
       <c r="D38" t="n">
-        <v>271.4621123173666</v>
+        <v>271.4621123173667</v>
       </c>
       <c r="E38" t="n">
         <v>298.7094407689456</v>
@@ -3521,7 +3521,7 @@
         <v>232.2325599433494</v>
       </c>
       <c r="I38" t="n">
-        <v>36.82833613565676</v>
+        <v>36.8283361356568</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.35003328869973</v>
+        <v>72.35003328869847</v>
       </c>
       <c r="T38" t="n">
         <v>129.6072969643922</v>
       </c>
       <c r="U38" t="n">
-        <v>167.9370800034434</v>
+        <v>167.9370800034435</v>
       </c>
       <c r="V38" t="n">
         <v>244.5313291668187</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.61105087862107</v>
+        <v>96.61105087862111</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>84.02589179531165</v>
       </c>
       <c r="D40" t="n">
-        <v>65.39454371489613</v>
+        <v>65.39454371489617</v>
       </c>
       <c r="E40" t="n">
-        <v>63.21303334325295</v>
+        <v>63.21303334325299</v>
       </c>
       <c r="F40" t="n">
-        <v>62.20011871961502</v>
+        <v>62.20011871961506</v>
       </c>
       <c r="G40" t="n">
-        <v>83.71791931037514</v>
+        <v>83.71791931037518</v>
       </c>
       <c r="H40" t="n">
-        <v>69.651844400646</v>
+        <v>69.65184440064604</v>
       </c>
       <c r="I40" t="n">
-        <v>4.196464082430824</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.76483785913044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.4598992998462</v>
+        <v>89.39530944609506</v>
       </c>
       <c r="T40" t="n">
         <v>140.2291923973228</v>
@@ -3724,7 +3724,7 @@
         <v>203.3020690332748</v>
       </c>
       <c r="X40" t="n">
-        <v>142.4887260857209</v>
+        <v>142.488726085721</v>
       </c>
       <c r="Y40" t="n">
         <v>135.3637240487786</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.5129123601644</v>
+        <v>299.5129123601643</v>
       </c>
       <c r="C41" t="n">
         <v>282.0519624676913</v>
       </c>
       <c r="D41" t="n">
-        <v>271.4621123173667</v>
+        <v>271.4621123173666</v>
       </c>
       <c r="E41" t="n">
-        <v>298.7094407689456</v>
+        <v>298.7094407689455</v>
       </c>
       <c r="F41" t="n">
-        <v>323.6551164383952</v>
+        <v>323.6551164383951</v>
       </c>
       <c r="G41" t="n">
-        <v>329.7362631983584</v>
+        <v>329.7362631983583</v>
       </c>
       <c r="H41" t="n">
-        <v>232.2325599433494</v>
+        <v>232.2325599433493</v>
       </c>
       <c r="I41" t="n">
-        <v>36.82833613565676</v>
+        <v>36.82833613565668</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.35003328869973</v>
+        <v>72.35003328869968</v>
       </c>
       <c r="T41" t="n">
         <v>129.6072969643918</v>
       </c>
       <c r="U41" t="n">
-        <v>167.9370800034434</v>
+        <v>167.9370800034435</v>
       </c>
       <c r="V41" t="n">
-        <v>244.5313291668187</v>
+        <v>244.5313291668186</v>
       </c>
       <c r="W41" t="n">
-        <v>266.0200394140968</v>
+        <v>266.0200394140967</v>
       </c>
       <c r="X41" t="n">
-        <v>286.5101713751528</v>
+        <v>286.5101713751527</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.0170093527374</v>
+        <v>303.0170093527373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.61105087862107</v>
+        <v>96.611050878621</v>
       </c>
       <c r="C43" t="n">
-        <v>84.02589179531161</v>
+        <v>84.02589179531154</v>
       </c>
       <c r="D43" t="n">
-        <v>65.39454371489613</v>
+        <v>65.39454371489606</v>
       </c>
       <c r="E43" t="n">
-        <v>63.21303334325295</v>
+        <v>63.21303334325287</v>
       </c>
       <c r="F43" t="n">
-        <v>62.20011871961502</v>
+        <v>62.20011871961495</v>
       </c>
       <c r="G43" t="n">
-        <v>83.71791931037514</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.95123131684138</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>40.58910468130084</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.58725454689556</v>
+        <v>46.76483785913037</v>
       </c>
       <c r="S43" t="n">
-        <v>122.4598992998462</v>
+        <v>122.4598992998461</v>
       </c>
       <c r="T43" t="n">
-        <v>140.2291923973228</v>
+        <v>140.2291923973227</v>
       </c>
       <c r="U43" t="n">
-        <v>203.0407111034601</v>
+        <v>203.04071110346</v>
       </c>
       <c r="V43" t="n">
-        <v>168.9167140205118</v>
+        <v>168.9167140205117</v>
       </c>
       <c r="W43" t="n">
-        <v>203.3020690332748</v>
+        <v>203.3020690332747</v>
       </c>
       <c r="X43" t="n">
         <v>142.4887260857209</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.3637240487786</v>
+        <v>135.3637240487785</v>
       </c>
     </row>
     <row r="44">
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.8282262677084</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1580093067597</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>155.9869820197915</v>
       </c>
       <c r="X44" t="n">
-        <v>40.24313687651523</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,22 +4135,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>70.56247245087131</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9388486136914</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.8727737039622</v>
       </c>
       <c r="I46" t="n">
         <v>123.8100339846171</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>129.9857671624467</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.6846469288195</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>933.0703826156771</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>730.8837879744431</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="W3" t="n">
-        <v>510.883919072659</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="X3" t="n">
-        <v>510.883919072659</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.883919072659</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.1872303756613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>521.6360070197613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>521.6360070197613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>521.6360070197613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>278.1872303756613</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>939.5141483236</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>737.327553682366</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>737.327553682366</v>
       </c>
       <c r="V6" t="n">
-        <v>197.3253049269343</v>
+        <v>737.327553682366</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>737.327553682366</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>529.4760534768332</v>
       </c>
     </row>
     <row r="7">
@@ -4744,22 +4744,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499.3853800778592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>255.9366034337592</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4829,25 +4829,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.6327430815143</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1797138003873</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D9" t="n">
-        <v>21.24530413913604</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E9" t="n">
-        <v>21.24530413913604</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>21.24530413913604</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>21.24530413913604</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>21.24530413913604</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8592397821844</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8592397821844</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8592397821844</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8592397821844</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>921.8592397821844</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="X9" t="n">
-        <v>720.6083788665362</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.8480801015824</v>
+        <v>678.4104631380844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.21152850097</v>
+        <v>1883.556619248946</v>
       </c>
       <c r="C11" t="n">
-        <v>1557.754216928184</v>
+        <v>1596.099307676161</v>
       </c>
       <c r="D11" t="n">
         <v>1319.338814437036</v>
@@ -5027,22 +5027,22 @@
         <v>1015.055767206418</v>
       </c>
       <c r="F11" t="n">
-        <v>685.5750677844362</v>
+        <v>685.5750677844364</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9517958776434</v>
+        <v>349.9517958776435</v>
       </c>
       <c r="H11" t="n">
         <v>112.8171131173244</v>
       </c>
       <c r="I11" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J11" t="n">
         <v>258.3150868174178</v>
       </c>
       <c r="K11" t="n">
-        <v>656.7085930192467</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L11" t="n">
         <v>1203.227593368444</v>
@@ -5051,40 +5051,40 @@
         <v>1827.941829667683</v>
       </c>
       <c r="N11" t="n">
-        <v>2448.132597883056</v>
+        <v>2448.132597883055</v>
       </c>
       <c r="O11" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P11" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q11" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R11" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S11" t="n">
-        <v>3577.384529069021</v>
+        <v>3577.38452906902</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.911728105629</v>
+        <v>3482.256818853605</v>
       </c>
       <c r="U11" t="n">
-        <v>3271.721974577538</v>
+        <v>3310.067065325514</v>
       </c>
       <c r="V11" t="n">
-        <v>3022.164292601593</v>
+        <v>3060.50938334957</v>
       </c>
       <c r="W11" t="n">
-        <v>2750.900842699105</v>
+        <v>2789.245933447082</v>
       </c>
       <c r="X11" t="n">
-        <v>2458.940289805651</v>
+        <v>2497.285380553628</v>
       </c>
       <c r="Y11" t="n">
-        <v>2150.306163197466</v>
+        <v>2188.651253945442</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.838965489107</v>
       </c>
       <c r="F12" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H12" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I12" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J12" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K12" t="n">
-        <v>399.0427810433125</v>
+        <v>137.2221964008597</v>
       </c>
       <c r="L12" t="n">
-        <v>686.4535300599089</v>
+        <v>371.1753891063711</v>
       </c>
       <c r="M12" t="n">
-        <v>1321.591629077737</v>
+        <v>1006.3134881242</v>
       </c>
       <c r="N12" t="n">
-        <v>1989.246957051628</v>
+        <v>1673.96881609809</v>
       </c>
       <c r="O12" t="n">
-        <v>2533.605466840842</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P12" t="n">
         <v>2638.219953809709</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381.902486010729</v>
+        <v>408.7512148970574</v>
       </c>
       <c r="C13" t="n">
-        <v>381.902486010729</v>
+        <v>321.3202373367765</v>
       </c>
       <c r="D13" t="n">
-        <v>313.2910519660194</v>
+        <v>321.3202373367765</v>
       </c>
       <c r="E13" t="n">
-        <v>246.8831637512523</v>
+        <v>254.9123491220094</v>
       </c>
       <c r="F13" t="n">
-        <v>181.498421620968</v>
+        <v>189.5276069917251</v>
       </c>
       <c r="G13" t="n">
-        <v>181.498421620968</v>
+        <v>189.5276069917251</v>
       </c>
       <c r="H13" t="n">
-        <v>116.6158692240356</v>
+        <v>116.6158692240357</v>
       </c>
       <c r="I13" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J13" t="n">
-        <v>134.1598848869677</v>
+        <v>134.1598848869676</v>
       </c>
       <c r="K13" t="n">
-        <v>313.0124180232991</v>
+        <v>313.012418023299</v>
       </c>
       <c r="L13" t="n">
-        <v>575.0687106111554</v>
+        <v>575.0687106111553</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4170144724048</v>
+        <v>857.4170144724046</v>
       </c>
       <c r="N13" t="n">
-        <v>1140.385768348677</v>
+        <v>1140.385768348676</v>
       </c>
       <c r="O13" t="n">
-        <v>1391.835056141177</v>
+        <v>1391.835056141176</v>
       </c>
       <c r="P13" t="n">
-        <v>1595.0020084497</v>
+        <v>1595.002008449699</v>
       </c>
       <c r="Q13" t="n">
         <v>1676.805424021804</v>
@@ -5224,25 +5224,25 @@
         <v>1627.011874679888</v>
       </c>
       <c r="S13" t="n">
-        <v>1500.758667317047</v>
+        <v>1527.607396203376</v>
       </c>
       <c r="T13" t="n">
-        <v>1356.556679047664</v>
+        <v>1383.405407933993</v>
       </c>
       <c r="U13" t="n">
-        <v>1148.908712287233</v>
+        <v>1175.757441173562</v>
       </c>
       <c r="V13" t="n">
-        <v>975.7294294489725</v>
+        <v>1002.578158335301</v>
       </c>
       <c r="W13" t="n">
-        <v>767.8174647796379</v>
+        <v>794.6661936659666</v>
       </c>
       <c r="X13" t="n">
-        <v>621.3331192492467</v>
+        <v>648.1818481355753</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.0457454733427</v>
+        <v>508.8944743596711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1865.662243566557</v>
+        <v>1865.662243566556</v>
       </c>
       <c r="C14" t="n">
-        <v>1580.76127137697</v>
+        <v>1580.761271376969</v>
       </c>
       <c r="D14" t="n">
-        <v>1306.557117521044</v>
+        <v>1306.557117521043</v>
       </c>
       <c r="E14" t="n">
-        <v>1004.830409673624</v>
+        <v>1004.830409673623</v>
       </c>
       <c r="F14" t="n">
-        <v>677.906049634841</v>
+        <v>677.9060496348402</v>
       </c>
       <c r="G14" t="n">
-        <v>344.8391171112466</v>
+        <v>344.8391171112464</v>
       </c>
       <c r="H14" t="n">
-        <v>110.260773734126</v>
+        <v>110.2607737341258</v>
       </c>
       <c r="I14" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J14" t="n">
         <v>258.3150868174178</v>
       </c>
       <c r="K14" t="n">
-        <v>656.7085930192467</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L14" t="n">
-        <v>1203.227593368444</v>
+        <v>1203.227593368445</v>
       </c>
       <c r="M14" t="n">
         <v>1827.941829667683</v>
@@ -5291,37 +5291,37 @@
         <v>2448.132597883056</v>
       </c>
       <c r="O14" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P14" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q14" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R14" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S14" t="n">
-        <v>3579.94086845222</v>
+        <v>3579.940868452219</v>
       </c>
       <c r="T14" t="n">
-        <v>3449.024406872025</v>
+        <v>3449.024406872024</v>
       </c>
       <c r="U14" t="n">
-        <v>3279.390992727133</v>
+        <v>3279.390992727132</v>
       </c>
       <c r="V14" t="n">
-        <v>3032.389650134387</v>
+        <v>3032.389650134386</v>
       </c>
       <c r="W14" t="n">
-        <v>2763.682539615097</v>
+        <v>2763.682539615096</v>
       </c>
       <c r="X14" t="n">
-        <v>2474.278326104842</v>
+        <v>2474.278326104841</v>
       </c>
       <c r="Y14" t="n">
-        <v>2168.200538879854</v>
+        <v>2168.200538879853</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.838965489107</v>
       </c>
       <c r="F15" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H15" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I15" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J15" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K15" t="n">
         <v>399.0427810433125</v>
       </c>
       <c r="L15" t="n">
-        <v>624.2468873603802</v>
+        <v>898.7706713769503</v>
       </c>
       <c r="M15" t="n">
-        <v>798.336973265709</v>
+        <v>1480.862438724318</v>
       </c>
       <c r="N15" t="n">
-        <v>1465.992301239599</v>
+        <v>1673.96881609809</v>
       </c>
       <c r="O15" t="n">
-        <v>2010.350811028813</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P15" t="n">
-        <v>2430.243438951219</v>
+        <v>2638.219953809709</v>
       </c>
       <c r="Q15" t="n">
         <v>2658.232771468745</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.9532862952974</v>
+        <v>546.5881675015409</v>
       </c>
       <c r="C16" t="n">
-        <v>424.9532862952974</v>
+        <v>461.7135293244585</v>
       </c>
       <c r="D16" t="n">
-        <v>358.8981916337862</v>
+        <v>395.6584346629473</v>
       </c>
       <c r="E16" t="n">
-        <v>295.0466428022175</v>
+        <v>331.8068858313787</v>
       </c>
       <c r="F16" t="n">
-        <v>232.2182400551317</v>
+        <v>268.9784830842928</v>
       </c>
       <c r="G16" t="n">
-        <v>147.6546851961669</v>
+        <v>184.4149282253281</v>
       </c>
       <c r="H16" t="n">
         <v>114.0595298408372</v>
       </c>
       <c r="I16" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J16" t="n">
         <v>136.6653531164405</v>
@@ -5458,28 +5458,28 @@
         <v>1696.849169857587</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.611959898869</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="S16" t="n">
-        <v>1525.915091919227</v>
+        <v>1647.54997312547</v>
       </c>
       <c r="T16" t="n">
-        <v>1384.269443033042</v>
+        <v>1505.904324239285</v>
       </c>
       <c r="U16" t="n">
-        <v>1179.17781565581</v>
+        <v>1300.812696862053</v>
       </c>
       <c r="V16" t="n">
-        <v>1008.554872200747</v>
+        <v>1130.189753406991</v>
       </c>
       <c r="W16" t="n">
-        <v>803.1992469146111</v>
+        <v>924.8341281208545</v>
       </c>
       <c r="X16" t="n">
-        <v>659.2712407674182</v>
+        <v>780.9061219736617</v>
       </c>
       <c r="Y16" t="n">
-        <v>522.5402063747126</v>
+        <v>644.1750875809561</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>1865.662243566557</v>
       </c>
       <c r="C17" t="n">
-        <v>1580.76127137697</v>
+        <v>1580.761271376969</v>
       </c>
       <c r="D17" t="n">
-        <v>1306.557117521044</v>
+        <v>1306.557117521043</v>
       </c>
       <c r="E17" t="n">
         <v>1004.830409673624</v>
       </c>
       <c r="F17" t="n">
-        <v>677.906049634841</v>
+        <v>677.9060496348408</v>
       </c>
       <c r="G17" t="n">
-        <v>344.8391171112466</v>
+        <v>344.8391171112464</v>
       </c>
       <c r="H17" t="n">
-        <v>110.260773734126</v>
+        <v>110.2607737341258</v>
       </c>
       <c r="I17" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J17" t="n">
-        <v>258.3150868174178</v>
+        <v>258.315086817418</v>
       </c>
       <c r="K17" t="n">
-        <v>656.7085930192467</v>
+        <v>656.708593019247</v>
       </c>
       <c r="L17" t="n">
-        <v>1203.227593368444</v>
+        <v>1203.227593368445</v>
       </c>
       <c r="M17" t="n">
         <v>1827.941829667683</v>
@@ -5531,31 +5531,31 @@
         <v>2988.573515938517</v>
       </c>
       <c r="P17" t="n">
-        <v>3412.152953048774</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q17" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R17" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S17" t="n">
-        <v>3579.94086845222</v>
+        <v>3579.940868452219</v>
       </c>
       <c r="T17" t="n">
-        <v>3449.024406872026</v>
+        <v>3449.024406872024</v>
       </c>
       <c r="U17" t="n">
-        <v>3279.390992727133</v>
+        <v>3279.390992727132</v>
       </c>
       <c r="V17" t="n">
-        <v>3032.389650134387</v>
+        <v>3032.389650134386</v>
       </c>
       <c r="W17" t="n">
         <v>2763.682539615097</v>
       </c>
       <c r="X17" t="n">
-        <v>2474.278326104842</v>
+        <v>2474.278326104841</v>
       </c>
       <c r="Y17" t="n">
         <v>2168.200538879854</v>
@@ -5580,37 +5580,37 @@
         <v>504.838965489107</v>
       </c>
       <c r="F18" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H18" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I18" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J18" t="n">
-        <v>189.7034564957856</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K18" t="n">
-        <v>515.6858033359385</v>
+        <v>137.2221964008597</v>
       </c>
       <c r="L18" t="n">
-        <v>648.2817518191517</v>
+        <v>636.9500867344975</v>
       </c>
       <c r="M18" t="n">
-        <v>822.3718377244804</v>
+        <v>1272.088185752326</v>
       </c>
       <c r="N18" t="n">
-        <v>1465.992301239599</v>
+        <v>1939.743513726216</v>
       </c>
       <c r="O18" t="n">
-        <v>2010.350811028813</v>
+        <v>2484.102023515431</v>
       </c>
       <c r="P18" t="n">
-        <v>2430.243438951219</v>
+        <v>2588.716510484298</v>
       </c>
       <c r="Q18" t="n">
         <v>2658.232771468745</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.5881675015411</v>
+        <v>424.9532862952977</v>
       </c>
       <c r="C19" t="n">
-        <v>461.7135293244586</v>
+        <v>340.0786481182154</v>
       </c>
       <c r="D19" t="n">
-        <v>395.6584346629474</v>
+        <v>274.0235534567041</v>
       </c>
       <c r="E19" t="n">
-        <v>331.8068858313788</v>
+        <v>210.1720046251355</v>
       </c>
       <c r="F19" t="n">
-        <v>268.9784830842929</v>
+        <v>147.3436018780497</v>
       </c>
       <c r="G19" t="n">
-        <v>184.4149282253281</v>
+        <v>114.0595298408372</v>
       </c>
       <c r="H19" t="n">
         <v>114.0595298408372</v>
       </c>
       <c r="I19" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J19" t="n">
         <v>136.6653531164405</v>
@@ -5710,13 +5710,13 @@
         <v>1008.554872200747</v>
       </c>
       <c r="W19" t="n">
-        <v>803.1992469146111</v>
+        <v>803.1992469146114</v>
       </c>
       <c r="X19" t="n">
-        <v>683.3192018942467</v>
+        <v>659.2712407674186</v>
       </c>
       <c r="Y19" t="n">
-        <v>546.5881675015411</v>
+        <v>522.540206374713</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>1865.662243566557</v>
       </c>
       <c r="C20" t="n">
-        <v>1580.76127137697</v>
+        <v>1580.761271376969</v>
       </c>
       <c r="D20" t="n">
-        <v>1306.557117521044</v>
+        <v>1306.557117521043</v>
       </c>
       <c r="E20" t="n">
         <v>1004.830409673624</v>
@@ -5747,52 +5747,52 @@
         <v>110.2607737341259</v>
       </c>
       <c r="I20" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3150868174184</v>
+        <v>258.3150868174178</v>
       </c>
       <c r="K20" t="n">
-        <v>656.7085930192475</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L20" t="n">
-        <v>1203.227593368445</v>
+        <v>1203.227593368444</v>
       </c>
       <c r="M20" t="n">
-        <v>1827.941829667684</v>
+        <v>1827.941829667683</v>
       </c>
       <c r="N20" t="n">
-        <v>2448.132597883057</v>
+        <v>2448.132597883056</v>
       </c>
       <c r="O20" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P20" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q20" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R20" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S20" t="n">
-        <v>3579.94086845222</v>
+        <v>3579.940868452219</v>
       </c>
       <c r="T20" t="n">
-        <v>3449.024406872025</v>
+        <v>3449.024406872024</v>
       </c>
       <c r="U20" t="n">
-        <v>3279.390992727133</v>
+        <v>3279.390992727132</v>
       </c>
       <c r="V20" t="n">
-        <v>3032.389650134387</v>
+        <v>3032.389650134386</v>
       </c>
       <c r="W20" t="n">
         <v>2763.682539615097</v>
       </c>
       <c r="X20" t="n">
-        <v>2474.278326104842</v>
+        <v>2474.278326104841</v>
       </c>
       <c r="Y20" t="n">
         <v>2168.200538879854</v>
@@ -5817,37 +5817,37 @@
         <v>504.838965489107</v>
       </c>
       <c r="F21" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H21" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I21" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J21" t="n">
-        <v>179.1695295246322</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K21" t="n">
-        <v>505.1518763647852</v>
+        <v>137.2221964008597</v>
       </c>
       <c r="L21" t="n">
-        <v>637.7478248479983</v>
+        <v>636.9500867344975</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.885923865827</v>
+        <v>1006.3134881242</v>
       </c>
       <c r="N21" t="n">
-        <v>1465.992301239599</v>
+        <v>1673.96881609809</v>
       </c>
       <c r="O21" t="n">
-        <v>2010.350811028813</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P21" t="n">
-        <v>2430.243438951219</v>
+        <v>2638.219953809709</v>
       </c>
       <c r="Q21" t="n">
         <v>2658.232771468745</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2502.760707801932</v>
+        <v>546.5881675015409</v>
       </c>
       <c r="C22" t="n">
-        <v>2417.886069624849</v>
+        <v>461.7135293244585</v>
       </c>
       <c r="D22" t="n">
-        <v>2351.830974963338</v>
+        <v>395.6584346629473</v>
       </c>
       <c r="E22" t="n">
-        <v>2287.979426131769</v>
+        <v>331.8068858313787</v>
       </c>
       <c r="F22" t="n">
-        <v>2225.151023384683</v>
+        <v>268.9784830842928</v>
       </c>
       <c r="G22" t="n">
-        <v>2140.587468525719</v>
+        <v>184.4149282253281</v>
       </c>
       <c r="H22" t="n">
-        <v>2070.232070141228</v>
+        <v>114.0595298408372</v>
       </c>
       <c r="I22" t="n">
-        <v>2029.23297450355</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J22" t="n">
-        <v>2092.837893416831</v>
+        <v>136.6653531164405</v>
       </c>
       <c r="K22" t="n">
-        <v>2274.195894782635</v>
+        <v>318.0233544822447</v>
       </c>
       <c r="L22" t="n">
-        <v>2538.757655599964</v>
+        <v>582.5851152995739</v>
       </c>
       <c r="M22" t="n">
-        <v>2823.611427690686</v>
+        <v>867.438887390296</v>
       </c>
       <c r="N22" t="n">
-        <v>3109.085649796431</v>
+        <v>1152.913109496041</v>
       </c>
       <c r="O22" t="n">
-        <v>3363.040405818404</v>
+        <v>1406.867865518014</v>
       </c>
       <c r="P22" t="n">
-        <v>3568.7128263564</v>
+        <v>1612.540286056009</v>
       </c>
       <c r="Q22" t="n">
-        <v>3653.021710157977</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="R22" t="n">
-        <v>3605.784500199259</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="S22" t="n">
-        <v>3482.087632219616</v>
+        <v>1647.54997312547</v>
       </c>
       <c r="T22" t="n">
-        <v>3340.441983333432</v>
+        <v>1505.904324239285</v>
       </c>
       <c r="U22" t="n">
-        <v>3256.985237162444</v>
+        <v>1300.812696862053</v>
       </c>
       <c r="V22" t="n">
-        <v>3086.362293707382</v>
+        <v>1130.189753406991</v>
       </c>
       <c r="W22" t="n">
-        <v>2881.006668421246</v>
+        <v>924.8341281208545</v>
       </c>
       <c r="X22" t="n">
-        <v>2737.078662274053</v>
+        <v>780.9061219736617</v>
       </c>
       <c r="Y22" t="n">
-        <v>2600.347627881347</v>
+        <v>644.1750875809561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1865.662243566557</v>
       </c>
       <c r="C23" t="n">
-        <v>1580.76127137697</v>
+        <v>1580.761271376969</v>
       </c>
       <c r="D23" t="n">
         <v>1306.557117521044</v>
@@ -5975,61 +5975,61 @@
         <v>1004.830409673624</v>
       </c>
       <c r="F23" t="n">
-        <v>677.9060496348411</v>
+        <v>677.9060496348409</v>
       </c>
       <c r="G23" t="n">
-        <v>344.8391171112467</v>
+        <v>344.8391171112465</v>
       </c>
       <c r="H23" t="n">
-        <v>110.260773734126</v>
+        <v>110.2607737341259</v>
       </c>
       <c r="I23" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J23" t="n">
         <v>258.3150868174178</v>
       </c>
       <c r="K23" t="n">
-        <v>656.708593019247</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L23" t="n">
-        <v>1203.227593368445</v>
+        <v>1203.227593368444</v>
       </c>
       <c r="M23" t="n">
         <v>1827.941829667683</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.132597883056</v>
+        <v>2448.132597883055</v>
       </c>
       <c r="O23" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P23" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q23" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R23" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S23" t="n">
-        <v>3579.94086845222</v>
+        <v>3579.940868452219</v>
       </c>
       <c r="T23" t="n">
-        <v>3449.024406872025</v>
+        <v>3449.024406872024</v>
       </c>
       <c r="U23" t="n">
-        <v>3279.390992727133</v>
+        <v>3279.390992727132</v>
       </c>
       <c r="V23" t="n">
-        <v>3032.389650134387</v>
+        <v>3032.389650134386</v>
       </c>
       <c r="W23" t="n">
         <v>2763.682539615097</v>
       </c>
       <c r="X23" t="n">
-        <v>2474.278326104842</v>
+        <v>2474.278326104841</v>
       </c>
       <c r="Y23" t="n">
         <v>2168.200538879854</v>
@@ -6054,37 +6054,37 @@
         <v>504.838965489107</v>
       </c>
       <c r="F24" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H24" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I24" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J24" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K24" t="n">
-        <v>399.0427810433125</v>
+        <v>137.2221964008597</v>
       </c>
       <c r="L24" t="n">
-        <v>898.7706713769503</v>
+        <v>371.1753891063711</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.860757282279</v>
+        <v>1006.3134881242</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.516085256169</v>
+        <v>1673.96881609809</v>
       </c>
       <c r="O24" t="n">
-        <v>2010.350811028813</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P24" t="n">
-        <v>2430.243438951219</v>
+        <v>2638.219953809709</v>
       </c>
       <c r="Q24" t="n">
         <v>2658.232771468745</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.5881675015414</v>
+        <v>546.5881675015409</v>
       </c>
       <c r="C25" t="n">
-        <v>461.7135293244589</v>
+        <v>461.7135293244585</v>
       </c>
       <c r="D25" t="n">
-        <v>395.6584346629476</v>
+        <v>395.6584346629473</v>
       </c>
       <c r="E25" t="n">
-        <v>331.806885831379</v>
+        <v>331.8068858313787</v>
       </c>
       <c r="F25" t="n">
-        <v>268.978483084293</v>
+        <v>268.9784830842928</v>
       </c>
       <c r="G25" t="n">
-        <v>184.4149282253282</v>
+        <v>184.4149282253281</v>
       </c>
       <c r="H25" t="n">
-        <v>114.0595298408373</v>
+        <v>114.0595298408372</v>
       </c>
       <c r="I25" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J25" t="n">
         <v>136.6653531164405</v>
@@ -6151,10 +6151,10 @@
         <v>318.0233544822447</v>
       </c>
       <c r="L25" t="n">
-        <v>582.5851152995738</v>
+        <v>582.5851152995739</v>
       </c>
       <c r="M25" t="n">
-        <v>867.4388873902959</v>
+        <v>867.438887390296</v>
       </c>
       <c r="N25" t="n">
         <v>1152.913109496041</v>
@@ -6169,28 +6169,28 @@
         <v>1696.849169857587</v>
       </c>
       <c r="R25" t="n">
-        <v>1649.611959898869</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="S25" t="n">
-        <v>1525.915091919227</v>
+        <v>1647.54997312547</v>
       </c>
       <c r="T25" t="n">
-        <v>1384.269443033042</v>
+        <v>1505.904324239285</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.812696862054</v>
+        <v>1300.812696862053</v>
       </c>
       <c r="V25" t="n">
         <v>1130.189753406991</v>
       </c>
       <c r="W25" t="n">
-        <v>924.8341281208552</v>
+        <v>924.8341281208545</v>
       </c>
       <c r="X25" t="n">
-        <v>780.9061219736623</v>
+        <v>780.9061219736617</v>
       </c>
       <c r="Y25" t="n">
-        <v>644.1750875809566</v>
+        <v>644.1750875809561</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1968.573520184353</v>
+        <v>1793.265768098439</v>
       </c>
       <c r="C26" t="n">
-        <v>1968.573520184353</v>
+        <v>1426.859590541226</v>
       </c>
       <c r="D26" t="n">
-        <v>1612.864160960801</v>
+        <v>1071.150231317673</v>
       </c>
       <c r="E26" t="n">
-        <v>1229.632247745755</v>
+        <v>687.9183181026276</v>
       </c>
       <c r="F26" t="n">
-        <v>821.202682339346</v>
+        <v>279.4887526962185</v>
       </c>
       <c r="G26" t="n">
-        <v>507.8495278464987</v>
+        <v>279.4887526962185</v>
       </c>
       <c r="H26" t="n">
         <v>191.765979101752</v>
@@ -6257,19 +6257,19 @@
         <v>3286.013996136773</v>
       </c>
       <c r="U26" t="n">
-        <v>3034.875376624254</v>
+        <v>3286.013996136773</v>
       </c>
       <c r="V26" t="n">
-        <v>2706.368828663882</v>
+        <v>3286.013996136773</v>
       </c>
       <c r="W26" t="n">
-        <v>2356.156512776966</v>
+        <v>2935.801680249857</v>
       </c>
       <c r="X26" t="n">
-        <v>2356.156512776966</v>
+        <v>2564.892261371976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1968.573520184353</v>
+        <v>2177.309268779362</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>399.0427810433125</v>
       </c>
       <c r="L27" t="n">
-        <v>531.6387295265256</v>
+        <v>686.4535300599089</v>
       </c>
       <c r="M27" t="n">
-        <v>1006.3134881242</v>
+        <v>1321.591629077737</v>
       </c>
       <c r="N27" t="n">
-        <v>1673.96881609809</v>
+        <v>1989.246957051628</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.327325887304</v>
+        <v>2533.605466840842</v>
       </c>
       <c r="P27" t="n">
         <v>2638.219953809709</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2774.524956887805</v>
+        <v>551.93225525845</v>
       </c>
       <c r="C28" t="n">
-        <v>2774.524956887805</v>
+        <v>551.93225525845</v>
       </c>
       <c r="D28" t="n">
-        <v>2774.524956887805</v>
+        <v>551.93225525845</v>
       </c>
       <c r="E28" t="n">
-        <v>2774.524956887805</v>
+        <v>551.93225525845</v>
       </c>
       <c r="F28" t="n">
-        <v>2774.524956887805</v>
+        <v>407.598647143738</v>
       </c>
       <c r="G28" t="n">
-        <v>2774.524956887805</v>
+        <v>241.5298869171471</v>
       </c>
       <c r="H28" t="n">
-        <v>2774.524956887805</v>
+        <v>89.66928316503012</v>
       </c>
       <c r="I28" t="n">
-        <v>2652.020655882502</v>
+        <v>89.66928316503012</v>
       </c>
       <c r="J28" t="n">
-        <v>2652.020655882502</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K28" t="n">
-        <v>2753.495405467495</v>
+        <v>174.5351837881534</v>
       </c>
       <c r="L28" t="n">
-        <v>2938.173914504014</v>
+        <v>359.2136928246722</v>
       </c>
       <c r="M28" t="n">
-        <v>3143.144434813926</v>
+        <v>564.1842131345841</v>
       </c>
       <c r="N28" t="n">
-        <v>3348.735405138861</v>
+        <v>769.7751834595185</v>
       </c>
       <c r="O28" t="n">
-        <v>3522.806909380023</v>
+        <v>943.8466877006811</v>
       </c>
       <c r="P28" t="n">
-        <v>3648.596078137209</v>
+        <v>1069.635856457867</v>
       </c>
       <c r="Q28" t="n">
-        <v>3653.021710157976</v>
+        <v>1074.061488478634</v>
       </c>
       <c r="R28" t="n">
-        <v>3653.021710157976</v>
+        <v>1074.061488478634</v>
       </c>
       <c r="S28" t="n">
-        <v>3653.021710157976</v>
+        <v>1074.061488478634</v>
       </c>
       <c r="T28" t="n">
-        <v>3653.021710157976</v>
+        <v>1074.061488478634</v>
       </c>
       <c r="U28" t="n">
-        <v>3366.424877413117</v>
+        <v>1074.061488478634</v>
       </c>
       <c r="V28" t="n">
-        <v>3114.296728590429</v>
+        <v>821.9333396559452</v>
       </c>
       <c r="W28" t="n">
-        <v>3114.296728590429</v>
+        <v>731.0243807054914</v>
       </c>
       <c r="X28" t="n">
-        <v>2888.86351707561</v>
+        <v>731.0243807054914</v>
       </c>
       <c r="Y28" t="n">
-        <v>2774.524956887805</v>
+        <v>731.0243807054914</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>1865.662243566557</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.76127137697</v>
+        <v>1580.761271376969</v>
       </c>
       <c r="D29" t="n">
-        <v>1306.557117521044</v>
+        <v>1306.557117521043</v>
       </c>
       <c r="E29" t="n">
         <v>1004.830409673624</v>
       </c>
       <c r="F29" t="n">
-        <v>677.9060496348409</v>
+        <v>677.9060496348404</v>
       </c>
       <c r="G29" t="n">
         <v>344.8391171112465</v>
@@ -6458,40 +6458,40 @@
         <v>110.260773734126</v>
       </c>
       <c r="I29" t="n">
-        <v>73.06043420315952</v>
+        <v>73.06043420315955</v>
       </c>
       <c r="J29" t="n">
-        <v>258.3150868174178</v>
+        <v>258.3150868174184</v>
       </c>
       <c r="K29" t="n">
-        <v>656.7085930192466</v>
+        <v>656.7085930192475</v>
       </c>
       <c r="L29" t="n">
-        <v>1203.227593368444</v>
+        <v>1203.227593368445</v>
       </c>
       <c r="M29" t="n">
-        <v>1827.941829667683</v>
+        <v>1827.941829667684</v>
       </c>
       <c r="N29" t="n">
-        <v>2448.132597883056</v>
+        <v>2448.132597883057</v>
       </c>
       <c r="O29" t="n">
-        <v>2988.573515938517</v>
+        <v>2988.573515938518</v>
       </c>
       <c r="P29" t="n">
-        <v>3412.152953048774</v>
+        <v>3412.152953048776</v>
       </c>
       <c r="Q29" t="n">
-        <v>3653.021710157976</v>
+        <v>3653.021710157977</v>
       </c>
       <c r="R29" t="n">
-        <v>3653.021710157976</v>
+        <v>3653.021710157977</v>
       </c>
       <c r="S29" t="n">
-        <v>3579.940868452219</v>
+        <v>3579.94086845222</v>
       </c>
       <c r="T29" t="n">
-        <v>3449.024406872024</v>
+        <v>3449.024406872025</v>
       </c>
       <c r="U29" t="n">
         <v>3279.390992727133</v>
@@ -6528,34 +6528,34 @@
         <v>504.838965489107</v>
       </c>
       <c r="F30" t="n">
-        <v>358.3044075159919</v>
+        <v>358.304407515992</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8412358573115</v>
+        <v>220.8412358573116</v>
       </c>
       <c r="H30" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I30" t="n">
-        <v>73.06043420315952</v>
+        <v>73.06043420315955</v>
       </c>
       <c r="J30" t="n">
-        <v>189.7034564957855</v>
+        <v>73.06043420315955</v>
       </c>
       <c r="K30" t="n">
-        <v>515.6858033359385</v>
+        <v>399.0427810433125</v>
       </c>
       <c r="L30" t="n">
-        <v>1015.413693669576</v>
+        <v>898.7706713769503</v>
       </c>
       <c r="M30" t="n">
-        <v>1189.503779574905</v>
+        <v>1533.908770394779</v>
       </c>
       <c r="N30" t="n">
-        <v>1673.96881609809</v>
+        <v>2201.564098368669</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.327325887304</v>
+        <v>2533.605466840842</v>
       </c>
       <c r="P30" t="n">
         <v>2638.219953809709</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2502.760707801931</v>
+        <v>424.9532862952967</v>
       </c>
       <c r="C31" t="n">
-        <v>2417.886069624848</v>
+        <v>340.0786481182142</v>
       </c>
       <c r="D31" t="n">
-        <v>2351.830974963337</v>
+        <v>274.0235534567029</v>
       </c>
       <c r="E31" t="n">
-        <v>2287.979426131768</v>
+        <v>210.1720046251342</v>
       </c>
       <c r="F31" t="n">
-        <v>2225.151023384683</v>
+        <v>147.3436018780483</v>
       </c>
       <c r="G31" t="n">
-        <v>2140.587468525718</v>
+        <v>147.3436018780483</v>
       </c>
       <c r="H31" t="n">
-        <v>2070.232070141227</v>
+        <v>114.0595298408373</v>
       </c>
       <c r="I31" t="n">
-        <v>2029.232974503549</v>
+        <v>73.06043420315955</v>
       </c>
       <c r="J31" t="n">
-        <v>2092.83789341683</v>
+        <v>136.6653531164404</v>
       </c>
       <c r="K31" t="n">
-        <v>2274.195894782634</v>
+        <v>318.0233544822446</v>
       </c>
       <c r="L31" t="n">
-        <v>2538.757655599964</v>
+        <v>582.5851152995737</v>
       </c>
       <c r="M31" t="n">
-        <v>2823.611427690686</v>
+        <v>867.4388873902958</v>
       </c>
       <c r="N31" t="n">
-        <v>3109.085649796431</v>
+        <v>1152.913109496041</v>
       </c>
       <c r="O31" t="n">
-        <v>3363.040405818403</v>
+        <v>1406.867865518013</v>
       </c>
       <c r="P31" t="n">
-        <v>3568.712826356399</v>
+        <v>1612.540286056009</v>
       </c>
       <c r="Q31" t="n">
-        <v>3653.021710157976</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="R31" t="n">
-        <v>3605.784500199258</v>
+        <v>1649.611959898869</v>
       </c>
       <c r="S31" t="n">
-        <v>3482.087632219615</v>
+        <v>1525.915091919226</v>
       </c>
       <c r="T31" t="n">
-        <v>3462.076864539676</v>
+        <v>1384.269443033042</v>
       </c>
       <c r="U31" t="n">
-        <v>3256.985237162443</v>
+        <v>1179.177815655809</v>
       </c>
       <c r="V31" t="n">
-        <v>3086.362293707381</v>
+        <v>1008.554872200747</v>
       </c>
       <c r="W31" t="n">
-        <v>2881.006668421245</v>
+        <v>803.1992469146105</v>
       </c>
       <c r="X31" t="n">
-        <v>2737.078662274052</v>
+        <v>659.2712407674176</v>
       </c>
       <c r="Y31" t="n">
-        <v>2600.347627881346</v>
+        <v>522.5402063747119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1865.662243566556</v>
+        <v>1865.662243566557</v>
       </c>
       <c r="C32" t="n">
         <v>1580.76127137697</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1982.252798126172</v>
+        <v>987.4638594369407</v>
       </c>
       <c r="C33" t="n">
-        <v>1807.799768845045</v>
+        <v>813.0108301558137</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.865359183794</v>
+        <v>664.0764204945624</v>
       </c>
       <c r="E33" t="n">
-        <v>1499.627904178338</v>
+        <v>504.838965489107</v>
       </c>
       <c r="F33" t="n">
-        <v>1353.093346205223</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G33" t="n">
-        <v>1215.630174546543</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H33" t="n">
-        <v>1114.503905518448</v>
+        <v>119.7149668292173</v>
       </c>
       <c r="I33" t="n">
-        <v>1067.849372892391</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J33" t="n">
-        <v>1184.492395185017</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K33" t="n">
-        <v>1327.284450574464</v>
+        <v>399.0427810433125</v>
       </c>
       <c r="L33" t="n">
-        <v>1827.012340908102</v>
+        <v>898.7706713769503</v>
       </c>
       <c r="M33" t="n">
-        <v>2001.102426813431</v>
+        <v>1533.908770394779</v>
       </c>
       <c r="N33" t="n">
-        <v>2668.757754787321</v>
+        <v>2201.564098368669</v>
       </c>
       <c r="O33" t="n">
-        <v>3213.116264576535</v>
+        <v>2533.605466840842</v>
       </c>
       <c r="P33" t="n">
-        <v>3633.00889249894</v>
+        <v>2638.219953809709</v>
       </c>
       <c r="Q33" t="n">
-        <v>3653.021710157976</v>
+        <v>2658.232771468745</v>
       </c>
       <c r="R33" t="n">
-        <v>3630.557911448648</v>
+        <v>2635.768972759417</v>
       </c>
       <c r="S33" t="n">
-        <v>3480.686679478754</v>
+        <v>2485.897740789523</v>
       </c>
       <c r="T33" t="n">
-        <v>3283.609619066683</v>
+        <v>2288.820680377452</v>
       </c>
       <c r="U33" t="n">
-        <v>3055.469399076671</v>
+        <v>2060.68046038744</v>
       </c>
       <c r="V33" t="n">
-        <v>2820.317290844928</v>
+        <v>1825.528352155697</v>
       </c>
       <c r="W33" t="n">
-        <v>2566.079934116727</v>
+        <v>1571.290995427495</v>
       </c>
       <c r="X33" t="n">
-        <v>2358.228433911194</v>
+        <v>1363.439495221962</v>
       </c>
       <c r="Y33" t="n">
-        <v>2150.46813514624</v>
+        <v>1155.679196457009</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.5881675015414</v>
+        <v>424.9532862952967</v>
       </c>
       <c r="C34" t="n">
-        <v>461.7135293244589</v>
+        <v>340.0786481182142</v>
       </c>
       <c r="D34" t="n">
-        <v>395.6584346629476</v>
+        <v>274.0235534567029</v>
       </c>
       <c r="E34" t="n">
-        <v>331.806885831379</v>
+        <v>210.1720046251342</v>
       </c>
       <c r="F34" t="n">
-        <v>268.978483084293</v>
+        <v>210.1720046251342</v>
       </c>
       <c r="G34" t="n">
-        <v>184.4149282253282</v>
+        <v>125.6084497661694</v>
       </c>
       <c r="H34" t="n">
-        <v>114.0595298408373</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="I34" t="n">
         <v>73.06043420315952</v>
@@ -6886,22 +6886,22 @@
         <v>1525.915091919226</v>
       </c>
       <c r="T34" t="n">
-        <v>1408.317404159871</v>
+        <v>1384.269443033042</v>
       </c>
       <c r="U34" t="n">
-        <v>1203.225776782639</v>
+        <v>1179.177815655809</v>
       </c>
       <c r="V34" t="n">
-        <v>1032.602833327576</v>
+        <v>1008.554872200747</v>
       </c>
       <c r="W34" t="n">
-        <v>827.24720804144</v>
+        <v>803.1992469146105</v>
       </c>
       <c r="X34" t="n">
-        <v>683.319201894247</v>
+        <v>659.2712407674176</v>
       </c>
       <c r="Y34" t="n">
-        <v>546.5881675015414</v>
+        <v>522.5402063747119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.662243566558</v>
+        <v>1865.662243566557</v>
       </c>
       <c r="C35" t="n">
         <v>1580.76127137697</v>
@@ -6920,25 +6920,25 @@
         <v>1306.557117521044</v>
       </c>
       <c r="E35" t="n">
-        <v>1004.830409673625</v>
+        <v>1004.830409673624</v>
       </c>
       <c r="F35" t="n">
-        <v>677.9060496348409</v>
+        <v>677.9060496348411</v>
       </c>
       <c r="G35" t="n">
-        <v>344.8391171112465</v>
+        <v>344.8391171112467</v>
       </c>
       <c r="H35" t="n">
         <v>110.260773734126</v>
       </c>
       <c r="I35" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J35" t="n">
         <v>258.3150868174178</v>
       </c>
       <c r="K35" t="n">
-        <v>656.7085930192467</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L35" t="n">
         <v>1203.227593368444</v>
@@ -6947,25 +6947,25 @@
         <v>1827.941829667683</v>
       </c>
       <c r="N35" t="n">
-        <v>2448.132597883056</v>
+        <v>2448.132597883055</v>
       </c>
       <c r="O35" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P35" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q35" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R35" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S35" t="n">
         <v>3579.94086845222</v>
       </c>
       <c r="T35" t="n">
-        <v>3449.024406872025</v>
+        <v>3449.024406872026</v>
       </c>
       <c r="U35" t="n">
         <v>3279.390992727133</v>
@@ -6974,13 +6974,13 @@
         <v>3032.389650134387</v>
       </c>
       <c r="W35" t="n">
-        <v>2763.682539615098</v>
+        <v>2763.682539615097</v>
       </c>
       <c r="X35" t="n">
-        <v>2474.278326104843</v>
+        <v>2474.278326104842</v>
       </c>
       <c r="Y35" t="n">
-        <v>2168.200538879855</v>
+        <v>2168.200538879854</v>
       </c>
     </row>
     <row r="36">
@@ -7002,31 +7002,31 @@
         <v>504.838965489107</v>
       </c>
       <c r="F36" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H36" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I36" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J36" t="n">
-        <v>189.7034564957856</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K36" t="n">
-        <v>345.9964493728512</v>
+        <v>399.0427810433125</v>
       </c>
       <c r="L36" t="n">
-        <v>845.724339706489</v>
+        <v>898.7706713769503</v>
       </c>
       <c r="M36" t="n">
-        <v>1480.862438724318</v>
+        <v>1533.908770394779</v>
       </c>
       <c r="N36" t="n">
-        <v>1673.96881609809</v>
+        <v>2063.892512182052</v>
       </c>
       <c r="O36" t="n">
         <v>2218.327325887304</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2502.760707801932</v>
+        <v>424.9532862952967</v>
       </c>
       <c r="C37" t="n">
-        <v>2417.886069624849</v>
+        <v>340.0786481182142</v>
       </c>
       <c r="D37" t="n">
-        <v>2351.830974963338</v>
+        <v>274.0235534567029</v>
       </c>
       <c r="E37" t="n">
-        <v>2287.979426131769</v>
+        <v>268.978483084293</v>
       </c>
       <c r="F37" t="n">
-        <v>2225.151023384683</v>
+        <v>268.978483084293</v>
       </c>
       <c r="G37" t="n">
-        <v>2140.587468525719</v>
+        <v>184.4149282253282</v>
       </c>
       <c r="H37" t="n">
-        <v>2070.232070141228</v>
+        <v>114.0595298408373</v>
       </c>
       <c r="I37" t="n">
-        <v>2029.23297450355</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J37" t="n">
-        <v>2092.837893416831</v>
+        <v>136.6653531164404</v>
       </c>
       <c r="K37" t="n">
-        <v>2274.195894782635</v>
+        <v>318.0233544822446</v>
       </c>
       <c r="L37" t="n">
-        <v>2538.757655599964</v>
+        <v>582.5851152995737</v>
       </c>
       <c r="M37" t="n">
-        <v>2823.611427690686</v>
+        <v>867.4388873902958</v>
       </c>
       <c r="N37" t="n">
-        <v>3109.085649796431</v>
+        <v>1152.913109496041</v>
       </c>
       <c r="O37" t="n">
-        <v>3363.040405818404</v>
+        <v>1406.867865518013</v>
       </c>
       <c r="P37" t="n">
-        <v>3568.7128263564</v>
+        <v>1612.540286056009</v>
       </c>
       <c r="Q37" t="n">
-        <v>3653.021710157977</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="R37" t="n">
-        <v>3605.784500199259</v>
+        <v>1649.611959898869</v>
       </c>
       <c r="S37" t="n">
-        <v>3603.722513425861</v>
+        <v>1525.915091919226</v>
       </c>
       <c r="T37" t="n">
-        <v>3462.076864539677</v>
+        <v>1384.269443033042</v>
       </c>
       <c r="U37" t="n">
-        <v>3256.985237162444</v>
+        <v>1179.177815655809</v>
       </c>
       <c r="V37" t="n">
-        <v>3086.362293707382</v>
+        <v>1008.554872200747</v>
       </c>
       <c r="W37" t="n">
-        <v>2881.006668421246</v>
+        <v>803.1992469146105</v>
       </c>
       <c r="X37" t="n">
-        <v>2737.078662274053</v>
+        <v>659.2712407674176</v>
       </c>
       <c r="Y37" t="n">
-        <v>2600.347627881347</v>
+        <v>522.5402063747119</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>1004.830409673624</v>
       </c>
       <c r="F38" t="n">
-        <v>677.906049634841</v>
+        <v>677.9060496348411</v>
       </c>
       <c r="G38" t="n">
-        <v>344.8391171112466</v>
+        <v>344.8391171112467</v>
       </c>
       <c r="H38" t="n">
         <v>110.260773734126</v>
       </c>
       <c r="I38" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3150868174178</v>
+        <v>258.315086817418</v>
       </c>
       <c r="K38" t="n">
-        <v>656.7085930192467</v>
+        <v>656.708593019247</v>
       </c>
       <c r="L38" t="n">
-        <v>1203.227593368444</v>
+        <v>1203.227593368445</v>
       </c>
       <c r="M38" t="n">
         <v>1827.941829667683</v>
@@ -7187,22 +7187,22 @@
         <v>2448.132597883056</v>
       </c>
       <c r="O38" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P38" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q38" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R38" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S38" t="n">
         <v>3579.94086845222</v>
       </c>
       <c r="T38" t="n">
-        <v>3449.024406872025</v>
+        <v>3449.024406872026</v>
       </c>
       <c r="U38" t="n">
         <v>3279.390992727133</v>
@@ -7239,34 +7239,34 @@
         <v>504.838965489107</v>
       </c>
       <c r="F39" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H39" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I39" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J39" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K39" t="n">
         <v>399.0427810433125</v>
       </c>
       <c r="L39" t="n">
-        <v>898.7706713769503</v>
+        <v>761.0990851903334</v>
       </c>
       <c r="M39" t="n">
-        <v>1321.591629077737</v>
+        <v>1396.237184208162</v>
       </c>
       <c r="N39" t="n">
-        <v>1989.246957051628</v>
+        <v>2063.892512182052</v>
       </c>
       <c r="O39" t="n">
-        <v>2533.605466840842</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P39" t="n">
         <v>2638.219953809709</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>424.9532862952969</v>
+        <v>505.5890718638637</v>
       </c>
       <c r="C40" t="n">
-        <v>424.9532862952969</v>
+        <v>420.7144336867812</v>
       </c>
       <c r="D40" t="n">
-        <v>358.8981916337857</v>
+        <v>354.6593390252699</v>
       </c>
       <c r="E40" t="n">
-        <v>295.0466428022171</v>
+        <v>290.8077901937012</v>
       </c>
       <c r="F40" t="n">
-        <v>232.2182400551312</v>
+        <v>227.9793874466153</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6546851961664</v>
+        <v>143.4158325876505</v>
       </c>
       <c r="H40" t="n">
-        <v>77.29928681167553</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="I40" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J40" t="n">
-        <v>136.6653531164405</v>
+        <v>136.6653531164404</v>
       </c>
       <c r="K40" t="n">
-        <v>318.0233544822447</v>
+        <v>318.0233544822446</v>
       </c>
       <c r="L40" t="n">
-        <v>582.5851152995738</v>
+        <v>582.5851152995737</v>
       </c>
       <c r="M40" t="n">
-        <v>867.438887390296</v>
+        <v>867.4388873902958</v>
       </c>
       <c r="N40" t="n">
         <v>1152.913109496041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.867865518014</v>
+        <v>1406.867865518013</v>
       </c>
       <c r="P40" t="n">
         <v>1612.540286056009</v>
@@ -7354,28 +7354,28 @@
         <v>1696.849169857587</v>
       </c>
       <c r="R40" t="n">
-        <v>1649.611959898869</v>
+        <v>1696.849169857587</v>
       </c>
       <c r="S40" t="n">
-        <v>1525.915091919227</v>
+        <v>1606.550877487794</v>
       </c>
       <c r="T40" t="n">
-        <v>1384.269443033042</v>
+        <v>1464.905228601609</v>
       </c>
       <c r="U40" t="n">
-        <v>1179.177815655809</v>
+        <v>1259.813601224376</v>
       </c>
       <c r="V40" t="n">
-        <v>1008.554872200747</v>
+        <v>1089.190657769314</v>
       </c>
       <c r="W40" t="n">
-        <v>803.1992469146107</v>
+        <v>883.8350324831777</v>
       </c>
       <c r="X40" t="n">
-        <v>659.2712407674178</v>
+        <v>739.9070263359847</v>
       </c>
       <c r="Y40" t="n">
-        <v>522.5402063747122</v>
+        <v>603.175991943279</v>
       </c>
     </row>
     <row r="41">
@@ -7397,52 +7397,52 @@
         <v>1004.830409673624</v>
       </c>
       <c r="F41" t="n">
-        <v>677.906049634841</v>
+        <v>677.9060496348407</v>
       </c>
       <c r="G41" t="n">
-        <v>344.8391171112466</v>
+        <v>344.8391171112463</v>
       </c>
       <c r="H41" t="n">
-        <v>110.260773734126</v>
+        <v>110.2607737341259</v>
       </c>
       <c r="I41" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3150868174184</v>
+        <v>258.3150868174172</v>
       </c>
       <c r="K41" t="n">
-        <v>656.7085930192475</v>
+        <v>656.7085930192461</v>
       </c>
       <c r="L41" t="n">
-        <v>1203.227593368445</v>
+        <v>1203.227593368444</v>
       </c>
       <c r="M41" t="n">
-        <v>1827.941829667684</v>
+        <v>1827.941829667682</v>
       </c>
       <c r="N41" t="n">
-        <v>2448.132597883057</v>
+        <v>2448.132597883055</v>
       </c>
       <c r="O41" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P41" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048775</v>
       </c>
       <c r="Q41" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R41" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S41" t="n">
-        <v>3579.94086845222</v>
+        <v>3579.940868452219</v>
       </c>
       <c r="T41" t="n">
-        <v>3449.024406872026</v>
+        <v>3449.024406872025</v>
       </c>
       <c r="U41" t="n">
-        <v>3279.390992727133</v>
+        <v>3279.390992727132</v>
       </c>
       <c r="V41" t="n">
         <v>3032.389650134387</v>
@@ -7476,28 +7476,28 @@
         <v>504.838965489107</v>
       </c>
       <c r="F42" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H42" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I42" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J42" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K42" t="n">
-        <v>399.0427810433125</v>
+        <v>137.2221964008597</v>
       </c>
       <c r="L42" t="n">
-        <v>531.6387295265257</v>
+        <v>371.1753891063711</v>
       </c>
       <c r="M42" t="n">
-        <v>1166.776828544354</v>
+        <v>1006.3134881242</v>
       </c>
       <c r="N42" t="n">
         <v>1673.96881609809</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>435.2336734793725</v>
+        <v>424.9532862952986</v>
       </c>
       <c r="C43" t="n">
-        <v>350.3590353022901</v>
+        <v>340.0786481182162</v>
       </c>
       <c r="D43" t="n">
-        <v>284.3039406407788</v>
+        <v>274.023553456705</v>
       </c>
       <c r="E43" t="n">
-        <v>220.4523918092102</v>
+        <v>210.1720046251365</v>
       </c>
       <c r="F43" t="n">
-        <v>157.6239890621243</v>
+        <v>147.3436018780507</v>
       </c>
       <c r="G43" t="n">
-        <v>73.06043420315955</v>
+        <v>147.3436018780507</v>
       </c>
       <c r="H43" t="n">
-        <v>73.06043420315955</v>
+        <v>114.0595298408371</v>
       </c>
       <c r="I43" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J43" t="n">
         <v>136.6653531164405</v>
       </c>
       <c r="K43" t="n">
-        <v>318.0233544822447</v>
+        <v>318.0233544822448</v>
       </c>
       <c r="L43" t="n">
-        <v>582.5851152995738</v>
+        <v>582.585115299574</v>
       </c>
       <c r="M43" t="n">
-        <v>867.438887390296</v>
+        <v>867.4388873902963</v>
       </c>
       <c r="N43" t="n">
         <v>1152.913109496041</v>
@@ -7585,34 +7585,34 @@
         <v>1406.867865518014</v>
       </c>
       <c r="P43" t="n">
-        <v>1612.540286056009</v>
+        <v>1612.54028605601</v>
       </c>
       <c r="Q43" t="n">
         <v>1696.849169857587</v>
       </c>
       <c r="R43" t="n">
-        <v>1659.892347082945</v>
+        <v>1649.61195989887</v>
       </c>
       <c r="S43" t="n">
-        <v>1536.195479103302</v>
+        <v>1525.915091919227</v>
       </c>
       <c r="T43" t="n">
-        <v>1394.549830217117</v>
+        <v>1384.269443033043</v>
       </c>
       <c r="U43" t="n">
-        <v>1189.458202839885</v>
+        <v>1179.17781565581</v>
       </c>
       <c r="V43" t="n">
-        <v>1018.835259384823</v>
+        <v>1008.554872200748</v>
       </c>
       <c r="W43" t="n">
-        <v>813.4796340986863</v>
+        <v>803.1992469146121</v>
       </c>
       <c r="X43" t="n">
-        <v>669.5516279514934</v>
+        <v>659.2712407674193</v>
       </c>
       <c r="Y43" t="n">
-        <v>532.8205935587878</v>
+        <v>522.5402063747138</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7631,25 @@
         <v>1286.96306886543</v>
       </c>
       <c r="E44" t="n">
-        <v>901.174816267186</v>
+        <v>901.1748162671859</v>
       </c>
       <c r="F44" t="n">
         <v>490.1889114775784</v>
       </c>
       <c r="G44" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="H44" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="I44" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J44" t="n">
         <v>258.3150868174178</v>
       </c>
       <c r="K44" t="n">
-        <v>656.7085930192467</v>
+        <v>656.7085930192466</v>
       </c>
       <c r="L44" t="n">
         <v>1203.227593368444</v>
@@ -7661,31 +7661,31 @@
         <v>2448.132597883056</v>
       </c>
       <c r="O44" t="n">
-        <v>2988.573515938518</v>
+        <v>2988.573515938517</v>
       </c>
       <c r="P44" t="n">
-        <v>3412.152953048776</v>
+        <v>3412.152953048774</v>
       </c>
       <c r="Q44" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="R44" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="S44" t="n">
-        <v>3653.021710157977</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="T44" t="n">
-        <v>3438.043703826958</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="U44" t="n">
-        <v>3184.348744931242</v>
+        <v>3653.021710157976</v>
       </c>
       <c r="V44" t="n">
-        <v>3184.348744931242</v>
+        <v>3321.958822814405</v>
       </c>
       <c r="W44" t="n">
-        <v>2831.580089661127</v>
+        <v>3164.396214713606</v>
       </c>
       <c r="X44" t="n">
         <v>2790.930456452526</v>
@@ -7713,37 +7713,37 @@
         <v>504.838965489107</v>
       </c>
       <c r="F45" t="n">
-        <v>358.304407515992</v>
+        <v>358.3044075159919</v>
       </c>
       <c r="G45" t="n">
-        <v>220.8412358573116</v>
+        <v>220.8412358573115</v>
       </c>
       <c r="H45" t="n">
         <v>119.7149668292173</v>
       </c>
       <c r="I45" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="J45" t="n">
-        <v>189.7034564957856</v>
+        <v>189.7034564957855</v>
       </c>
       <c r="K45" t="n">
-        <v>514.4426931107046</v>
+        <v>253.8652186934857</v>
       </c>
       <c r="L45" t="n">
-        <v>1014.170583444342</v>
+        <v>386.4611671766989</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.260669349671</v>
+        <v>1006.3134881242</v>
       </c>
       <c r="N45" t="n">
-        <v>1855.915997323561</v>
+        <v>1673.96881609809</v>
       </c>
       <c r="O45" t="n">
-        <v>2010.350811028813</v>
+        <v>2218.327325887304</v>
       </c>
       <c r="P45" t="n">
-        <v>2430.243438951219</v>
+        <v>2638.219953809709</v>
       </c>
       <c r="Q45" t="n">
         <v>2658.232771468745</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>514.2928498469768</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="C46" t="n">
-        <v>514.2928498469768</v>
+        <v>985.2479861744746</v>
       </c>
       <c r="D46" t="n">
-        <v>364.1762104346411</v>
+        <v>835.1313467621388</v>
       </c>
       <c r="E46" t="n">
-        <v>364.1762104346411</v>
+        <v>687.2182531797457</v>
       </c>
       <c r="F46" t="n">
-        <v>217.2862629367307</v>
+        <v>540.3283056818353</v>
       </c>
       <c r="G46" t="n">
-        <v>217.2862629367307</v>
+        <v>371.7032060720461</v>
       </c>
       <c r="H46" t="n">
         <v>217.2862629367307</v>
       </c>
       <c r="I46" t="n">
-        <v>92.22562254822854</v>
+        <v>92.22562254822851</v>
       </c>
       <c r="J46" t="n">
-        <v>73.06043420315955</v>
+        <v>73.06043420315952</v>
       </c>
       <c r="K46" t="n">
         <v>172.0297155586807</v>
       </c>
       <c r="L46" t="n">
-        <v>354.2027563657268</v>
+        <v>354.2027563657267</v>
       </c>
       <c r="M46" t="n">
         <v>556.6678084461659</v>
@@ -7828,28 +7828,28 @@
         <v>1056.523210872324</v>
       </c>
       <c r="R46" t="n">
-        <v>925.2244561627823</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="S46" t="n">
-        <v>925.2244561627823</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="T46" t="n">
-        <v>925.2244561627823</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="U46" t="n">
-        <v>925.2244561627823</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="V46" t="n">
-        <v>670.5399679568955</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="W46" t="n">
-        <v>670.5399679568955</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="X46" t="n">
-        <v>670.5399679568955</v>
+        <v>1056.523210872324</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.2928498469768</v>
+        <v>1056.523210872324</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8769,10 +8769,10 @@
         <v>8.26980070139264</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>156.3785863973567</v>
+        <v>102.3810547699982</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119846</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>93.54359377157024</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>412.1229105475138</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>8.26980070139264</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0647334761077</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>50.00347810647624</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>115.4507050665165</v>
+        <v>8.26980070139264</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>197.2457732165389</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>8.26980070139264</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>102.3810547699982</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>116.5655677448405</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>156.3785863973568</v>
       </c>
       <c r="M27" t="n">
-        <v>303.6208815074195</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>8.26980070139264</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>294.3016759084975</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>179.400560370627</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>8.26980070139264</v>
       </c>
       <c r="K33" t="n">
-        <v>79.42453857752238</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>179.400560370627</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>8.26980070139264</v>
       </c>
       <c r="K36" t="n">
-        <v>93.0618491710762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10674,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>340.2801660742435</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.800181262746</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>231.7781370341493</v>
       </c>
       <c r="M39" t="n">
-        <v>251.2433048438974</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,16 +11139,16 @@
         <v>8.26980070139264</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>102.3810547699982</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>317.2581921009729</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.800181262746</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>263.2095701184028</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>450.2648838809819</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.96163984049608</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>37.96163984049785</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.55666778467804</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.92531970426262</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>86.24869529974157</v>
+        <v>86.24869529974163</v>
       </c>
       <c r="H13" t="n">
-        <v>7.94889351704937</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26.58024159746583</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.02589179531159</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>36.39264059886962</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.76483785913042</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.65369453505026</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.61105087862106</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>50.76668799353474</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>69.65184440064597</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23.80748151556018</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.76483785913042</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>73.65369453505026</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>120.4185323941824</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.76483785913042</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>73.65369453505026</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>120.4185323941817</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>380.2030656741142</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>362.7421157816411</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>100.2067935643894</v>
+        <v>410.4264165123082</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.0771673987774</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,16 +24497,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>248.6272333173932</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>325.2214824807685</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>367.2003246891026</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.3012041925709</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>164.7160451092614</v>
@@ -24610,19 +24610,19 @@
         <v>143.9031866572028</v>
       </c>
       <c r="F28" t="n">
-        <v>142.8902720335648</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.408072624325</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.3419977145958</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>121.2792579952507</v>
       </c>
       <c r="J28" t="n">
-        <v>16.4427604722519</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>220.9193457112726</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>283.7308644174099</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.9922223472246</v>
+        <v>193.9923529862753</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>223.1788793996707</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.858702776802</v>
+        <v>216.0538773627284</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.71791931037518</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>36.70061308380716</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4185323941824</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.61105087862111</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.20011871961506</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.62930899326629</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>40.58910468130095</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>23.80748151556112</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>58.21841367456724</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.20011871961506</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>120.4185323941821</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.02589179531161</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>36.39264059887009</v>
+        <v>40.58910468130095</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.76483785913049</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>33.06458985375114</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.71791931037507</v>
       </c>
       <c r="H43" t="n">
-        <v>69.651844400646</v>
+        <v>36.70061308380455</v>
       </c>
       <c r="I43" t="n">
-        <v>40.58910468130091</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.17758331223489</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25916,19 +25916,19 @@
         <v>155.570962592016</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.8282262677084</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1580093067597</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>193.2539866976215</v>
       </c>
       <c r="X44" t="n">
-        <v>329.4879638019538</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>96.68434864775652</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9388486136914</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.8727737039622</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.9857671624467</v>
       </c>
       <c r="S46" t="n">
         <v>205.6808286031624</v>
@@ -26080,7 +26080,7 @@
         <v>286.2616404067763</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.9000064232753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809160.0505882833</v>
+        <v>809160.0505882832</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813294.6192071408</v>
+        <v>813294.619207141</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813294.6192071408</v>
+        <v>813294.619207141</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813294.6192071408</v>
+        <v>813294.619207141</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813294.6192071408</v>
+        <v>813294.619207141</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813294.6192071409</v>
+        <v>813294.619207141</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677140.5522774324</v>
+        <v>677140.5522774321</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
-        <v>671287.5849690001</v>
+        <v>671287.5849690002</v>
       </c>
       <c r="F2" t="n">
         <v>674975.1731966294</v>
       </c>
       <c r="G2" t="n">
-        <v>674975.1731966295</v>
+        <v>674975.1731966292</v>
       </c>
       <c r="H2" t="n">
-        <v>674975.1731966295</v>
+        <v>674975.1731966293</v>
       </c>
       <c r="I2" t="n">
-        <v>674975.1731966295</v>
+        <v>674975.1731966294</v>
       </c>
       <c r="J2" t="n">
         <v>557395.246317122</v>
@@ -26344,16 +26344,16 @@
         <v>674975.1731966296</v>
       </c>
       <c r="M2" t="n">
-        <v>674975.1731966297</v>
+        <v>674975.1731966292</v>
       </c>
       <c r="N2" t="n">
-        <v>674975.1731966294</v>
+        <v>674975.1731966292</v>
       </c>
       <c r="O2" t="n">
-        <v>674975.1731966294</v>
+        <v>674975.1731966295</v>
       </c>
       <c r="P2" t="n">
-        <v>553540.4648539157</v>
+        <v>553540.4648539159</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>734017.4900872577</v>
+        <v>734017.4900872576</v>
       </c>
       <c r="F3" t="n">
-        <v>2024.620791493157</v>
+        <v>2024.620791493214</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910617</v>
+        <v>63059.94259910607</v>
       </c>
       <c r="K3" t="n">
-        <v>66576.74344265298</v>
+        <v>66576.74344265304</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>167525.180719084</v>
+        <v>167525.1807190839</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337599.7632500553</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
-        <v>337599.7632500552</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337599.7632500553</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>138698.3924666188</v>
+        <v>138793.2657779378</v>
       </c>
       <c r="F4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="G4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="H4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="I4" t="n">
-        <v>141255.8573204565</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="J4" t="n">
-        <v>59715.35987923122</v>
+        <v>59810.23319055035</v>
       </c>
       <c r="K4" t="n">
-        <v>141255.8573204565</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="L4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="M4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="N4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317757</v>
       </c>
       <c r="O4" t="n">
-        <v>141255.8573204566</v>
+        <v>141350.7306317758</v>
       </c>
       <c r="P4" t="n">
-        <v>57043.0052379437</v>
+        <v>57137.87854926284</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>75028.77471509419</v>
+        <v>75028.77471509417</v>
       </c>
       <c r="F5" t="n">
-        <v>75241.53452174424</v>
+        <v>75241.53452174422</v>
       </c>
       <c r="G5" t="n">
-        <v>75241.53452174424</v>
+        <v>75241.53452174422</v>
       </c>
       <c r="H5" t="n">
-        <v>75241.53452174424</v>
+        <v>75241.53452174422</v>
       </c>
       <c r="I5" t="n">
-        <v>75241.53452174424</v>
+        <v>75241.53452174422</v>
       </c>
       <c r="J5" t="n">
         <v>68457.99402279378</v>
       </c>
       <c r="K5" t="n">
+        <v>75241.53452174424</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75241.53452174421</v>
+      </c>
+      <c r="M5" t="n">
+        <v>75241.53452174421</v>
+      </c>
+      <c r="N5" t="n">
+        <v>75241.53452174421</v>
+      </c>
+      <c r="O5" t="n">
         <v>75241.53452174422</v>
       </c>
-      <c r="L5" t="n">
-        <v>75241.53452174422</v>
-      </c>
-      <c r="M5" t="n">
-        <v>75241.53452174424</v>
-      </c>
-      <c r="N5" t="n">
-        <v>75241.53452174424</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75241.53452174424</v>
-      </c>
       <c r="P5" t="n">
-        <v>68245.23421614376</v>
+        <v>68245.23421614373</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210708.9965926695</v>
+        <v>210610.6497090918</v>
       </c>
       <c r="C6" t="n">
-        <v>291478.4281242169</v>
+        <v>291380.0812406397</v>
       </c>
       <c r="D6" t="n">
-        <v>291478.4281242171</v>
+        <v>291380.0812406397</v>
       </c>
       <c r="E6" t="n">
-        <v>-276457.0722999705</v>
+        <v>-276551.9456112894</v>
       </c>
       <c r="F6" t="n">
-        <v>456453.1605629354</v>
+        <v>456358.2872516162</v>
       </c>
       <c r="G6" t="n">
-        <v>458477.7813544286</v>
+        <v>458382.9080431092</v>
       </c>
       <c r="H6" t="n">
-        <v>458477.7813544287</v>
+        <v>458382.9080431093</v>
       </c>
       <c r="I6" t="n">
-        <v>458477.7813544287</v>
+        <v>458382.9080431095</v>
       </c>
       <c r="J6" t="n">
-        <v>366161.9498159909</v>
+        <v>366067.0765046718</v>
       </c>
       <c r="K6" t="n">
-        <v>391901.0379117759</v>
+        <v>391806.1646004567</v>
       </c>
       <c r="L6" t="n">
-        <v>458477.7813544289</v>
+        <v>458382.9080431097</v>
       </c>
       <c r="M6" t="n">
-        <v>290952.6006353449</v>
+        <v>290857.7273240254</v>
       </c>
       <c r="N6" t="n">
-        <v>458477.7813544286</v>
+        <v>458382.9080431092</v>
       </c>
       <c r="O6" t="n">
-        <v>458477.7813544286</v>
+        <v>458382.9080431095</v>
       </c>
       <c r="P6" t="n">
-        <v>428252.2253998283</v>
+        <v>428157.3520885093</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="F2" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G2" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H2" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I2" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J2" t="n">
         <v>2.530775989366404</v>
@@ -26716,13 +26716,13 @@
         <v>83.22092930331618</v>
       </c>
       <c r="M2" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="N2" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="O2" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26796,40 +26796,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="F4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="G4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="H4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="I4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="J4" t="n">
         <v>913.255427539494</v>
       </c>
       <c r="K4" t="n">
-        <v>913.255427539494</v>
+        <v>913.2554275394942</v>
       </c>
       <c r="L4" t="n">
         <v>913.255427539494</v>
       </c>
       <c r="M4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="N4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="O4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
       <c r="P4" t="n">
-        <v>913.2554275394942</v>
+        <v>913.255427539494</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="F2" t="n">
-        <v>2.530775989366447</v>
+        <v>2.530775989366518</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>672.2411386618352</v>
+        <v>672.241138661835</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>672.2411386618352</v>
+        <v>672.241138661835</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="K2" t="n">
-        <v>2.530775989366447</v>
+        <v>2.530775989366518</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>672.2411386618352</v>
+        <v>672.241138661835</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>176.5005018200695</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,16 +27430,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>140.5452563781768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>141.0062659378283</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>129.1526953209402</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>206.8877105131121</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,16 +27673,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>98.77539105041416</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>147.385593988672</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>75.43126296236522</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27816,7 +27816,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27831,10 +27831,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,10 +27862,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>199.8391668911481</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,7 +27901,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.45211343278099</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>58.38189758147586</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="C11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="D11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="E11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="F11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="G11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="H11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="I11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="T11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="U11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="V11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="W11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="X11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="C13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="D13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="E13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="F13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="G13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="H13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="I13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="J13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="K13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="L13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="M13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="N13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="O13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="P13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="R13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="S13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="T13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="U13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="V13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="W13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="X13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.69015331394979</v>
+        <v>80.69015331394974</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="K16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="L16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="M16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="N16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="O16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="P16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="R16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="S16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="K19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="L19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="M19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="N19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="O19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="P19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="R19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="S19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.22092930331624</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="K22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="L22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="M22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="N22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="O22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="P22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="R22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="S22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="C25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="D25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="E25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="F25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="G25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="H25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="I25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="J25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="K25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="L25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="M25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="N25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="O25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="P25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="R25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="S25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="T25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="U25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="V25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="W25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="X25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.2209293033162</v>
+        <v>83.22092930331625</v>
       </c>
     </row>
     <row r="26">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>83.22092930331735</v>
+      </c>
+      <c r="C32" t="n">
         <v>83.22092930331618</v>
-      </c>
-      <c r="C32" t="n">
-        <v>83.22092930331729</v>
       </c>
       <c r="D32" t="n">
         <v>83.22092930331618</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="C35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="D35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="E35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="F35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="G35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="H35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="I35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="T35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="U35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="V35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="W35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="X35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Y35" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="C37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="D37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="E37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="F37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="G37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="H37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="I37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="J37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="K37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="L37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="M37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="N37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="O37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="P37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="R37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="S37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="T37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="U37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="V37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="W37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="X37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="C38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="D38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="E38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="F38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="G38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="H38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="I38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="T38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="U38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="V38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="W38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="X38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Y38" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="C40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="D40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="E40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="F40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="G40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="H40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="I40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="J40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="K40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="L40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="M40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="N40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="O40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="P40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="R40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="S40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="T40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="U40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="V40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="W40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="X40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.22092930331623</v>
+        <v>83.22092930331618</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="C41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="D41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="E41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="F41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="G41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="H41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="I41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>2.530775989366447</v>
       </c>
       <c r="S41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="T41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="U41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="V41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="W41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="X41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="C43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="D43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="E43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="F43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="G43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="H43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="I43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="J43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="K43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="L43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="M43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="N43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="O43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="P43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="R43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="S43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="T43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="U43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="V43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="W43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="X43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.22092930331623</v>
+        <v>83.2209293033163</v>
       </c>
     </row>
     <row r="44">
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>552.0393942921187</v>
       </c>
       <c r="M11" t="n">
-        <v>631.0244811103424</v>
+        <v>631.0244811103421</v>
       </c>
       <c r="N11" t="n">
         <v>626.45532142967</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>329.2750978183363</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L12" t="n">
-        <v>290.3138878955519</v>
+        <v>236.3163562681933</v>
       </c>
       <c r="M12" t="n">
         <v>641.553635371544</v>
@@ -35504,7 +35504,7 @@
         <v>549.8570805951661</v>
       </c>
       <c r="P12" t="n">
-        <v>105.671198958452</v>
+        <v>424.1339675983892</v>
       </c>
       <c r="Q12" t="n">
         <v>20.21496733235907</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.71661685233148</v>
+        <v>61.71661685233143</v>
       </c>
       <c r="K13" t="n">
-        <v>180.6591243801328</v>
+        <v>180.6591243801327</v>
       </c>
       <c r="L13" t="n">
-        <v>264.7033258463196</v>
+        <v>264.7033258463195</v>
       </c>
       <c r="M13" t="n">
         <v>285.2003069305549</v>
       </c>
       <c r="N13" t="n">
-        <v>285.8270241174465</v>
+        <v>285.8270241174464</v>
       </c>
       <c r="O13" t="n">
-        <v>253.9891795883839</v>
+        <v>253.9891795883838</v>
       </c>
       <c r="P13" t="n">
         <v>205.2191437459828</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.62971269909568</v>
+        <v>82.62971269909562</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>631.0244811103421</v>
       </c>
       <c r="N14" t="n">
-        <v>626.4553214296704</v>
+        <v>626.45532142967</v>
       </c>
       <c r="O14" t="n">
         <v>545.8999172277383</v>
@@ -35729,13 +35729,13 @@
         <v>329.2750978183363</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4788952697654</v>
+        <v>504.7756468016543</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8485716215442</v>
+        <v>587.9714821690579</v>
       </c>
       <c r="N15" t="n">
-        <v>674.3993211857476</v>
+        <v>195.0569468421941</v>
       </c>
       <c r="O15" t="n">
         <v>549.8570805951661</v>
@@ -35744,7 +35744,7 @@
         <v>424.1339675983892</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.2922550682082</v>
+        <v>20.21496733235907</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.24739284169793</v>
+        <v>64.24739284169794</v>
       </c>
       <c r="K16" t="n">
         <v>183.1899003694992</v>
@@ -35823,7 +35823,7 @@
         <v>207.7499197353493</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.16048868846212</v>
+        <v>85.16048868846214</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>427.8580172830886</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.3017748577806</v>
+        <v>243.3017748577793</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>117.8212346390162</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>329.2750978183363</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L18" t="n">
-        <v>133.9353014981951</v>
+        <v>504.7756468016543</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8485716215442</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N18" t="n">
-        <v>650.1216803183017</v>
+        <v>674.3993211857476</v>
       </c>
       <c r="O18" t="n">
         <v>549.8570805951661</v>
       </c>
       <c r="P18" t="n">
-        <v>424.1339675983892</v>
+        <v>105.671198958452</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.2922550682082</v>
+        <v>70.2184454388353</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>64.24739284169793</v>
+        <v>64.24739284169794</v>
       </c>
       <c r="K19" t="n">
         <v>183.1899003694992</v>
@@ -36060,7 +36060,7 @@
         <v>207.7499197353493</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.16048868846212</v>
+        <v>85.16048868846214</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>107.1809043651239</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.2750978183363</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L21" t="n">
-        <v>133.9353014981951</v>
+        <v>504.7756468016543</v>
       </c>
       <c r="M21" t="n">
-        <v>641.553635371544</v>
+        <v>373.094344838083</v>
       </c>
       <c r="N21" t="n">
-        <v>195.0569468421941</v>
+        <v>674.3993211857476</v>
       </c>
       <c r="O21" t="n">
         <v>549.8570805951661</v>
@@ -36218,7 +36218,7 @@
         <v>424.1339675983892</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.2922550682082</v>
+        <v>20.21496733235907</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.24739284169789</v>
+        <v>64.24739284169794</v>
       </c>
       <c r="K22" t="n">
         <v>183.1899003694992</v>
@@ -36285,19 +36285,19 @@
         <v>267.234101835686</v>
       </c>
       <c r="M22" t="n">
-        <v>287.7310829199213</v>
+        <v>287.7310829199214</v>
       </c>
       <c r="N22" t="n">
         <v>288.3578001068129</v>
       </c>
       <c r="O22" t="n">
-        <v>256.5199555777503</v>
+        <v>256.5199555777504</v>
       </c>
       <c r="P22" t="n">
-        <v>207.7499197353492</v>
+        <v>207.7499197353493</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.16048868846208</v>
+        <v>85.16048868846214</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>187.125911731574</v>
       </c>
       <c r="K23" t="n">
-        <v>402.4176830321507</v>
+        <v>402.4176830321504</v>
       </c>
       <c r="L23" t="n">
         <v>552.0393942921187</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>329.2750978183363</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L24" t="n">
-        <v>504.7756468016543</v>
+        <v>236.3163562681933</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8485716215442</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N24" t="n">
         <v>674.3993211857476</v>
       </c>
       <c r="O24" t="n">
-        <v>272.5603290632771</v>
+        <v>549.8570805951661</v>
       </c>
       <c r="P24" t="n">
         <v>424.1339675983892</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.2922550682082</v>
+        <v>20.21496733235907</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.24739284169789</v>
+        <v>64.24739284169794</v>
       </c>
       <c r="K25" t="n">
         <v>183.1899003694992</v>
@@ -36522,19 +36522,19 @@
         <v>267.234101835686</v>
       </c>
       <c r="M25" t="n">
-        <v>287.7310829199213</v>
+        <v>287.7310829199214</v>
       </c>
       <c r="N25" t="n">
         <v>288.3578001068129</v>
       </c>
       <c r="O25" t="n">
-        <v>256.5199555777503</v>
+        <v>256.5199555777504</v>
       </c>
       <c r="P25" t="n">
-        <v>207.7499197353492</v>
+        <v>207.7499197353493</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.16048868846208</v>
+        <v>85.16048868846214</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>329.2750978183363</v>
       </c>
       <c r="L27" t="n">
-        <v>133.9353014981951</v>
+        <v>290.3138878955519</v>
       </c>
       <c r="M27" t="n">
-        <v>479.4694531289637</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N27" t="n">
         <v>674.3993211857476</v>
@@ -36689,7 +36689,7 @@
         <v>549.8570805951661</v>
       </c>
       <c r="P27" t="n">
-        <v>424.1339675983892</v>
+        <v>105.671198958452</v>
       </c>
       <c r="Q27" t="n">
         <v>20.21496733235907</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>117.8212346390162</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>329.2750978183363</v>
@@ -36917,16 +36917,16 @@
         <v>504.7756468016543</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8485716215442</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N30" t="n">
-        <v>489.3586227506916</v>
+        <v>674.3993211857476</v>
       </c>
       <c r="O30" t="n">
-        <v>549.8570805951661</v>
+        <v>335.3953216890636</v>
       </c>
       <c r="P30" t="n">
-        <v>424.1339675983892</v>
+        <v>105.671198958452</v>
       </c>
       <c r="Q30" t="n">
         <v>20.21496733235907</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>117.8212346390162</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>144.2343993832801</v>
+        <v>329.2750978183363</v>
       </c>
       <c r="L33" t="n">
         <v>504.7756468016543</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8485716215442</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N33" t="n">
         <v>674.3993211857476</v>
       </c>
       <c r="O33" t="n">
-        <v>549.8570805951661</v>
+        <v>335.3953216890636</v>
       </c>
       <c r="P33" t="n">
-        <v>424.1339675983892</v>
+        <v>105.671198958452</v>
       </c>
       <c r="Q33" t="n">
         <v>20.21496733235907</v>
@@ -37312,10 +37312,10 @@
         <v>552.0393942921187</v>
       </c>
       <c r="M35" t="n">
-        <v>631.0244811103424</v>
+        <v>631.0244811103421</v>
       </c>
       <c r="N35" t="n">
-        <v>626.45532142967</v>
+        <v>626.4553214296695</v>
       </c>
       <c r="O35" t="n">
         <v>545.8999172277383</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>117.8212346390162</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>157.871709976834</v>
+        <v>329.2750978183363</v>
       </c>
       <c r="L36" t="n">
         <v>504.7756468016543</v>
@@ -37394,10 +37394,10 @@
         <v>641.553635371544</v>
       </c>
       <c r="N36" t="n">
-        <v>195.0569468421941</v>
+        <v>535.3371129164376</v>
       </c>
       <c r="O36" t="n">
-        <v>549.8570805951661</v>
+        <v>155.9947613184366</v>
       </c>
       <c r="P36" t="n">
         <v>424.1339675983892</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>64.24739284169792</v>
+        <v>64.24739284169787</v>
       </c>
       <c r="K37" t="n">
         <v>183.1899003694992</v>
       </c>
       <c r="L37" t="n">
-        <v>267.234101835686</v>
+        <v>267.2341018356859</v>
       </c>
       <c r="M37" t="n">
-        <v>287.7310829199214</v>
+        <v>287.7310829199213</v>
       </c>
       <c r="N37" t="n">
         <v>288.3578001068129</v>
       </c>
       <c r="O37" t="n">
-        <v>256.5199555777503</v>
+        <v>256.5199555777502</v>
       </c>
       <c r="P37" t="n">
         <v>207.7499197353492</v>
       </c>
       <c r="Q37" t="n">
-        <v>85.16048868846211</v>
+        <v>85.16048868846207</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>626.45532142967</v>
       </c>
       <c r="O38" t="n">
-        <v>545.899917227739</v>
+        <v>545.8999172277383</v>
       </c>
       <c r="P38" t="n">
         <v>427.8580172830886</v>
@@ -37625,19 +37625,19 @@
         <v>329.2750978183363</v>
       </c>
       <c r="L39" t="n">
-        <v>504.7756468016543</v>
+        <v>365.7134385323444</v>
       </c>
       <c r="M39" t="n">
-        <v>427.0918764654416</v>
+        <v>641.553635371544</v>
       </c>
       <c r="N39" t="n">
         <v>674.3993211857476</v>
       </c>
       <c r="O39" t="n">
-        <v>549.8570805951661</v>
+        <v>155.9947613184366</v>
       </c>
       <c r="P39" t="n">
-        <v>105.671198958452</v>
+        <v>424.1339675983892</v>
       </c>
       <c r="Q39" t="n">
         <v>20.21496733235907</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>64.24739284169792</v>
+        <v>64.24739284169787</v>
       </c>
       <c r="K40" t="n">
         <v>183.1899003694992</v>
       </c>
       <c r="L40" t="n">
-        <v>267.234101835686</v>
+        <v>267.2341018356859</v>
       </c>
       <c r="M40" t="n">
-        <v>287.7310829199214</v>
+        <v>287.7310829199213</v>
       </c>
       <c r="N40" t="n">
         <v>288.3578001068129</v>
       </c>
       <c r="O40" t="n">
-        <v>256.5199555777503</v>
+        <v>256.5199555777502</v>
       </c>
       <c r="P40" t="n">
         <v>207.7499197353492</v>
       </c>
       <c r="Q40" t="n">
-        <v>85.16048868846211</v>
+        <v>85.16048868846207</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>187.125911731574</v>
+        <v>187.1259117315735</v>
       </c>
       <c r="K41" t="n">
         <v>402.4176830321504</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.2750978183363</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L42" t="n">
-        <v>133.9353014981951</v>
+        <v>236.3163562681933</v>
       </c>
       <c r="M42" t="n">
         <v>641.553635371544</v>
       </c>
       <c r="N42" t="n">
-        <v>512.315138943167</v>
+        <v>674.3993211857476</v>
       </c>
       <c r="O42" t="n">
         <v>549.8570805951661</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>64.24739284169792</v>
+        <v>64.24739284169799</v>
       </c>
       <c r="K43" t="n">
-        <v>183.1899003694992</v>
+        <v>183.1899003694993</v>
       </c>
       <c r="L43" t="n">
         <v>267.234101835686</v>
@@ -37947,16 +37947,16 @@
         <v>287.7310829199214</v>
       </c>
       <c r="N43" t="n">
-        <v>288.3578001068129</v>
+        <v>288.357800106813</v>
       </c>
       <c r="O43" t="n">
-        <v>256.5199555777503</v>
+        <v>256.5199555777504</v>
       </c>
       <c r="P43" t="n">
-        <v>207.7499197353492</v>
+        <v>207.7499197353493</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.16048868846211</v>
+        <v>85.16048868846218</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>626.45532142967</v>
       </c>
       <c r="O44" t="n">
-        <v>545.899917227739</v>
+        <v>545.8999172277383</v>
       </c>
       <c r="P44" t="n">
         <v>427.8580172830886</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.3017748577793</v>
+        <v>243.3017748577797</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>117.8212346390162</v>
       </c>
       <c r="K45" t="n">
-        <v>328.0194309241606</v>
+        <v>64.80986080575775</v>
       </c>
       <c r="L45" t="n">
-        <v>504.7756468016543</v>
+        <v>133.9353014981951</v>
       </c>
       <c r="M45" t="n">
-        <v>175.8485716215442</v>
+        <v>626.1134555025261</v>
       </c>
       <c r="N45" t="n">
         <v>674.3993211857476</v>
       </c>
       <c r="O45" t="n">
-        <v>155.9947613184366</v>
+        <v>549.8570805951661</v>
       </c>
       <c r="P45" t="n">
         <v>424.1339675983892</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.2922550682082</v>
+        <v>20.21496733235907</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
